--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/35_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/35_11R22.xlsx
@@ -719,100 +719,100 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.128366961095535</v>
+        <v>0.1125328188447437</v>
       </c>
       <c r="I2">
-        <v>0.01736470812212444</v>
+        <v>0.02387002120313935</v>
       </c>
       <c r="J2">
-        <v>0.03132822860068542</v>
+        <v>0.03502335149501741</v>
       </c>
       <c r="K2">
-        <v>0.02575402057932749</v>
+        <v>0.03057096548868786</v>
       </c>
       <c r="L2">
-        <v>0.135364571779992</v>
+        <v>0.1181221444977947</v>
       </c>
       <c r="M2">
-        <v>0.07684514332758995</v>
+        <v>0.07137988383196374</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3.511064200879226E-05</v>
       </c>
       <c r="O2">
-        <v>0.09289262694246307</v>
+        <v>0.08419777494939248</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0009021012562061238</v>
       </c>
       <c r="Q2">
-        <v>0.02838097866819084</v>
+        <v>0.03266924230025545</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.003496174788955325</v>
       </c>
       <c r="S2">
-        <v>0.1777570102978007</v>
+        <v>0.1519830085537609</v>
       </c>
       <c r="T2">
-        <v>0.1834088445830651</v>
+        <v>0.156497398362212</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.001159966200109526</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.003045032525346208</v>
       </c>
       <c r="W2">
-        <v>0.01790393341961749</v>
+        <v>0.02430072618573383</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00658528364015994</v>
       </c>
       <c r="Y2">
-        <v>0.02392281281466479</v>
+        <v>0.0291082924426109</v>
       </c>
       <c r="Z2">
-        <v>0.03941813262610791</v>
+        <v>0.04148514397519212</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.003615970228094294</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.0004200076687709249</v>
       </c>
       <c r="AC2">
-        <v>0.01240181408660274</v>
+        <v>0.01990592085561227</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.001545953341603764</v>
       </c>
       <c r="AE2">
-        <v>0.003692627310854004</v>
+        <v>0.0129494776840839</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0005564655625389792</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.009261828423250528</v>
       </c>
       <c r="AH2">
-        <v>0.005197585745379003</v>
+        <v>0.01415155981814003</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.007338136260059541</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>5.087121916783103E-05</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.0006726289121002028</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.001716799943573323</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.0008499388997137725</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -838,100 +838,100 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3886058366686349</v>
+        <v>0.3073399039778106</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002728698936338759</v>
       </c>
       <c r="J3">
-        <v>0.09626332128338566</v>
+        <v>0.08365542152521467</v>
       </c>
       <c r="K3">
-        <v>0.08342521051509075</v>
+        <v>0.07383240225245909</v>
       </c>
       <c r="L3">
-        <v>0.03035090546199613</v>
+        <v>0.03322285067325116</v>
       </c>
       <c r="M3">
-        <v>0.003325010665583751</v>
+        <v>0.01254411606502169</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.008366118790365619</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.004189663627131393</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000380661113153435</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.001776336613606045</v>
       </c>
       <c r="R3">
-        <v>0.03942021251599685</v>
+        <v>0.04016218774471494</v>
       </c>
       <c r="S3">
-        <v>0.1225657211041282</v>
+        <v>0.1037805774007152</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.009770681385468098</v>
       </c>
       <c r="U3">
-        <v>0.001006851822022903</v>
+        <v>0.01077038787334389</v>
       </c>
       <c r="V3">
-        <v>0.07312707348396712</v>
+        <v>0.06595283178014102</v>
       </c>
       <c r="W3">
-        <v>0.002510612679063486</v>
+        <v>0.01192098332675007</v>
       </c>
       <c r="X3">
-        <v>0.01780294296885688</v>
+        <v>0.02362183697049343</v>
       </c>
       <c r="Y3">
-        <v>0.03592382636670458</v>
+        <v>0.03748694454504474</v>
       </c>
       <c r="Z3">
-        <v>0.02291171644436973</v>
+        <v>0.02753079064879</v>
       </c>
       <c r="AA3">
-        <v>0.006125798212298019</v>
+        <v>0.01468712530889052</v>
       </c>
       <c r="AB3">
-        <v>0.005487330317467433</v>
+        <v>0.01419860464185865</v>
       </c>
       <c r="AC3">
-        <v>0.02669830386291756</v>
+        <v>0.03042807996664103</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.006014204240770999</v>
       </c>
       <c r="AE3">
-        <v>0.008174429900630787</v>
+        <v>0.01625462608221056</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.004590515281172427</v>
       </c>
       <c r="AG3">
-        <v>0.03524918637279549</v>
+        <v>0.03697074696878556</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.0008630662392061265</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.0001665679875337051</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.001646988379432753</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>3.52569011873658E-06</v>
       </c>
       <c r="AL3">
-        <v>0.001025709354089844</v>
+        <v>0.01078481662413701</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.004357737339428016</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -954,100 +954,100 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01790854677863318</v>
+        <v>0.02439971406390821</v>
       </c>
       <c r="H4">
-        <v>0.1945614784703233</v>
+        <v>0.1664409269191254</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009688825759878473</v>
       </c>
       <c r="J4">
-        <v>0.1990393465220526</v>
+        <v>0.1700414434969274</v>
       </c>
       <c r="K4">
-        <v>0.1069294670015149</v>
+        <v>0.09597870999030562</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.008622900076089936</v>
       </c>
       <c r="M4">
-        <v>0.002052300980319676</v>
+        <v>0.01165019237211035</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00109385895956216</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.005731936971960797</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00545752195989495</v>
       </c>
       <c r="Q4">
-        <v>0.06597644221998542</v>
+        <v>0.06304963683905687</v>
       </c>
       <c r="R4">
-        <v>0.02340140227032999</v>
+        <v>0.02881635096094397</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0001780104615991019</v>
       </c>
       <c r="T4">
-        <v>0.05916150934487948</v>
+        <v>0.05756995800306462</v>
       </c>
       <c r="U4">
-        <v>0.1975739609801598</v>
+        <v>0.1688631718561588</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.003012640749366401</v>
       </c>
       <c r="W4">
-        <v>0.04794020350689343</v>
+        <v>0.04854724960087033</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.002001750467939572</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.001794845843855216</v>
       </c>
       <c r="Z4">
-        <v>0.06078255370803198</v>
+        <v>0.05887339013537791</v>
       </c>
       <c r="AA4">
-        <v>0.02467278821687625</v>
+        <v>0.02983863346780714</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.0002427340689252705</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.0007054398759770023</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.002292314877195846</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.0003229270458118067</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.009815699879212585</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.009158104754542909</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.008578566566911656</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.00611826135040681</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.000725579447824127</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.0001716894277396364</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.0002170137496489302</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1076,100 +1076,100 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.277331516974568</v>
+        <v>0.2289412844483868</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005575991801611267</v>
       </c>
       <c r="J5">
-        <v>0.1300069097627094</v>
+        <v>0.1126348542031136</v>
       </c>
       <c r="K5">
-        <v>0.03592082458859371</v>
+        <v>0.03835794344496771</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.009944774100853402</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0003739496659875126</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.003152929172717225</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.001680092547446165</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.004951024167015627</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.002593015427087212</v>
       </c>
       <c r="R5">
-        <v>0.05666707975357218</v>
+        <v>0.05473621809209661</v>
       </c>
       <c r="S5">
-        <v>0.1074855712222533</v>
+        <v>0.0948552277065096</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.009175831958804028</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0009633542022103586</v>
       </c>
       <c r="V5">
-        <v>0.02792870762327553</v>
+        <v>0.03204851142318648</v>
       </c>
       <c r="W5">
-        <v>0.03493119311548932</v>
+        <v>0.03757667203299223</v>
       </c>
       <c r="X5">
-        <v>0.003399280695184361</v>
+        <v>0.01268358565850458</v>
       </c>
       <c r="Y5">
-        <v>0.07544604320589668</v>
+        <v>0.06956140068841246</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.006696143606163007</v>
       </c>
       <c r="AA5">
-        <v>0.009875756410654579</v>
+        <v>0.01779648421151637</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.006132408363143656</v>
       </c>
       <c r="AC5">
-        <v>0.07389137433169543</v>
+        <v>0.06833405659163329</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.0008465319338494982</v>
       </c>
       <c r="AE5">
-        <v>0.07190772712122924</v>
+        <v>0.06676805257993723</v>
       </c>
       <c r="AF5">
-        <v>0.01850827847178638</v>
+        <v>0.024611488466033</v>
       </c>
       <c r="AG5">
-        <v>0.07669973672309192</v>
+        <v>0.07055113770767996</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.0009176653990893483</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.004337660856572903</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.004000553111300295</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.002098485421614929</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.005314624362467203</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.001788046647096288</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1183,85 +1183,85 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05421744278880267</v>
+        <v>0.05367263451208866</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.002136813466619362</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03200130279132225</v>
+        <v>0.0348970839556421</v>
       </c>
       <c r="I6">
-        <v>0.121585214943277</v>
+        <v>0.1106072330564333</v>
       </c>
       <c r="J6">
-        <v>0.01141494757828295</v>
+        <v>0.01749891518648495</v>
       </c>
       <c r="K6">
-        <v>0.03631752347258326</v>
+        <v>0.0385448562339491</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.007388698828269742</v>
       </c>
       <c r="M6">
-        <v>0.06382694055814168</v>
+        <v>0.06179391981235899</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2398747908216323</v>
+        <v>0.210577430960145</v>
       </c>
       <c r="P6">
-        <v>0.09517020443405366</v>
+        <v>0.0882830864980646</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.0001061105006577301</v>
       </c>
       <c r="S6">
-        <v>0.04578534715771936</v>
+        <v>0.04654640836136437</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.003469778102892307</v>
       </c>
       <c r="U6">
-        <v>0.07441179201443614</v>
+        <v>0.07073950683479729</v>
       </c>
       <c r="V6">
-        <v>0.1040185658001265</v>
+        <v>0.09576111176209565</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01976460910958036</v>
+        <v>0.02455547371680891</v>
       </c>
       <c r="Y6">
-        <v>0.02195530373332243</v>
+        <v>0.02640689784658435</v>
       </c>
       <c r="Z6">
-        <v>0.05514902763775495</v>
+        <v>0.0544599458285958</v>
       </c>
       <c r="AA6">
-        <v>0.01085558920781953</v>
+        <v>0.01702618403854482</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.005495438489651961</v>
       </c>
       <c r="AC6">
-        <v>0.005128120159215984</v>
+        <v>0.01218572189279247</v>
       </c>
       <c r="AD6">
-        <v>0.008523277791929108</v>
+        <v>0.0150550751552107</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.00279167495994796</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1314,100 +1314,100 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1096133196531939</v>
+        <v>0.09495409484635667</v>
       </c>
       <c r="I7">
-        <v>0.001402485775162276</v>
+        <v>0.0110869747393909</v>
       </c>
       <c r="J7">
-        <v>0.1558910477255196</v>
+        <v>0.1308209266544717</v>
       </c>
       <c r="K7">
-        <v>0.1368642050114163</v>
+        <v>0.1160744687816986</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0002687720645845796</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.14834645507673E-05</v>
       </c>
       <c r="N7">
-        <v>0.05461580647223169</v>
+        <v>0.05232912950572276</v>
       </c>
       <c r="O7">
-        <v>0.02502881853864006</v>
+        <v>0.02939819568234307</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.001060215050439098</v>
       </c>
       <c r="Q7">
-        <v>0.01334220126336626</v>
+        <v>0.02034066512330255</v>
       </c>
       <c r="R7">
-        <v>0.07432731003485173</v>
+        <v>0.06760622309727997</v>
       </c>
       <c r="S7">
-        <v>0.03034197693057061</v>
+        <v>0.03351607627741938</v>
       </c>
       <c r="T7">
-        <v>0.01043884223626893</v>
+        <v>0.01809046196422082</v>
       </c>
       <c r="U7">
-        <v>0.1197167922768436</v>
+        <v>0.1027846338197477</v>
       </c>
       <c r="V7">
-        <v>0.169682568140642</v>
+        <v>0.1415098295827723</v>
       </c>
       <c r="W7">
-        <v>0.00672744619502426</v>
+        <v>0.01521400231225639</v>
       </c>
       <c r="X7">
-        <v>0.006773399911596751</v>
+        <v>0.01524961802400195</v>
       </c>
       <c r="Y7">
-        <v>0.007437454763093642</v>
+        <v>0.01576428338598295</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.002500778843251514</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.0044715178533594</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.006922351755727762</v>
       </c>
       <c r="AC7">
-        <v>0.0241519536444644</v>
+        <v>0.02871859521386964</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.003501103212962708</v>
       </c>
       <c r="AE7">
-        <v>0.006814859404474677</v>
+        <v>0.01528175055772483</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.006048033665483154</v>
       </c>
       <c r="AG7">
-        <v>0.03927932039292939</v>
+        <v>0.04044282502089264</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.0005196166299388415</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.0003254487370925149</v>
       </c>
       <c r="AJ7">
-        <v>0.007550191629709628</v>
+        <v>0.01585165833721586</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>0.008107276790150062</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.090324636778013E-05</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.00120808575942095</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1433,100 +1433,100 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2442066912959785</v>
+        <v>0.2063767059310922</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002703035683644405</v>
       </c>
       <c r="J8">
-        <v>0.1082763235207811</v>
+        <v>0.09706947230028819</v>
       </c>
       <c r="K8">
-        <v>0.1326500598376161</v>
+        <v>0.1166694022765391</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0009795335279178907</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0005856521171115611</v>
       </c>
       <c r="N8">
-        <v>0.01745531610016416</v>
+        <v>0.02403654199049641</v>
       </c>
       <c r="O8">
-        <v>0.02396814262748528</v>
+        <v>0.02927377530686712</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.0001415353394794875</v>
       </c>
       <c r="Q8">
-        <v>0.07975493517937483</v>
+        <v>0.0741342436980609</v>
       </c>
       <c r="R8">
-        <v>0.07428846293093862</v>
+        <v>0.06973842715628333</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.005883291676681376</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.006334100256973774</v>
       </c>
       <c r="U8">
-        <v>0.1410526868527557</v>
+        <v>0.1234263023665568</v>
       </c>
       <c r="V8">
-        <v>0.1200617314232485</v>
+        <v>0.1065466064838712</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.00086422197837221</v>
       </c>
       <c r="X8">
-        <v>0.03611172918170841</v>
+        <v>0.03903893576603392</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.00714379601534918</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.003768730447225406</v>
       </c>
       <c r="AA8">
-        <v>0.008708383947152747</v>
+        <v>0.01700277189150558</v>
       </c>
       <c r="AB8">
-        <v>0.009829201756780081</v>
+        <v>0.01790406787252665</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.009099843983285932</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>4.264270272145471E-05</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.00173319856675542</v>
       </c>
       <c r="AF8">
-        <v>0.003636335346015959</v>
+        <v>0.01292412772607419</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.008235107683074703</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>8.815566628927453E-06</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.00989155217465941</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.00647345761359572</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.0006861392271422158</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.0003180895707156252</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.0009658751024696008</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1552,100 +1552,100 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1358558260489801</v>
+        <v>0.1152620725371692</v>
       </c>
       <c r="I9">
-        <v>0.06520687165297502</v>
+        <v>0.06052275381537728</v>
       </c>
       <c r="J9">
-        <v>0.09963408879141518</v>
+        <v>0.08719720961952399</v>
       </c>
       <c r="K9">
-        <v>0.1632383680455815</v>
+        <v>0.1364782633014811</v>
       </c>
       <c r="L9">
-        <v>0.02838328937973721</v>
+        <v>0.03199157704474311</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0002811013671564506</v>
       </c>
       <c r="N9">
-        <v>0.02110348126978365</v>
+        <v>0.02635112928764556</v>
       </c>
       <c r="O9">
-        <v>0.05471004714607531</v>
+        <v>0.05238973858306139</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.008801424026284085</v>
       </c>
       <c r="Q9">
-        <v>0.02150856033051327</v>
+        <v>0.02666498746151906</v>
       </c>
       <c r="R9">
-        <v>0.0901940973070605</v>
+        <v>0.07988303622501566</v>
       </c>
       <c r="S9">
-        <v>0.006053196451256983</v>
+        <v>0.01469006020915311</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.003238707036315491</v>
       </c>
       <c r="U9">
-        <v>0.07180785548092633</v>
+        <v>0.06563724362948348</v>
       </c>
       <c r="V9">
-        <v>0.1682029150149209</v>
+        <v>0.1403248300509438</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.00506608139635556</v>
       </c>
       <c r="X9">
-        <v>0.03548666558211989</v>
+        <v>0.03749532408908726</v>
       </c>
       <c r="Y9">
-        <v>0.01222548852120467</v>
+        <v>0.01947239656146522</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.006177001996428385</v>
       </c>
       <c r="AA9">
-        <v>0.009943410437882038</v>
+        <v>0.01770422602562389</v>
       </c>
       <c r="AB9">
-        <v>0.007419080382715398</v>
+        <v>0.01574835691715512</v>
       </c>
       <c r="AC9">
-        <v>0.009026758156851973</v>
+        <v>0.01699399723600716</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.003017187034423659</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.001899450278798593</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.002181044246385216</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.009912726068768063</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>6.814008195203124E-05</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.00130667332820103</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.005584091308523341</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>0.000692655311214823</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.001070652773845742</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.005895861150892021</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1671,100 +1671,100 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03344966703277095</v>
+        <v>0.03595692531476677</v>
       </c>
       <c r="I10">
-        <v>0.2099703393998677</v>
+        <v>0.1729368810391744</v>
       </c>
       <c r="J10">
-        <v>0.02837164782586614</v>
+        <v>0.03201638488512829</v>
       </c>
       <c r="K10">
-        <v>0.1798646454085534</v>
+        <v>0.149574877174796</v>
       </c>
       <c r="L10">
-        <v>0.04338377847339114</v>
+        <v>0.04366579095101126</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.00296592844546989</v>
       </c>
       <c r="N10">
-        <v>0.01168493606531531</v>
+        <v>0.01906750469169285</v>
       </c>
       <c r="O10">
-        <v>0.08769804602787643</v>
+        <v>0.07805364097545078</v>
       </c>
       <c r="P10">
-        <v>0.01142420244045721</v>
+        <v>0.01886517552587904</v>
       </c>
       <c r="Q10">
-        <v>0.008687033824535126</v>
+        <v>0.01674113401396186</v>
       </c>
       <c r="R10">
-        <v>0.06902235908323084</v>
+        <v>0.06356131700854245</v>
       </c>
       <c r="S10">
-        <v>0.000525915351698245</v>
+        <v>0.01040811005659777</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.0009496936338467656</v>
       </c>
       <c r="U10">
-        <v>0.0385152401472473</v>
+        <v>0.03988780758274672</v>
       </c>
       <c r="V10">
-        <v>0.1643026166521603</v>
+        <v>0.1374987504444402</v>
       </c>
       <c r="W10">
-        <v>0.007391138097370562</v>
+        <v>0.01573551956127445</v>
       </c>
       <c r="X10">
-        <v>0.03102052503356108</v>
+        <v>0.03407191230729258</v>
       </c>
       <c r="Y10">
-        <v>0.02153552831445386</v>
+        <v>0.02671155947605309</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.001410011861045063</v>
       </c>
       <c r="AA10">
-        <v>0.009603088900698675</v>
+        <v>0.01745199230659882</v>
       </c>
       <c r="AB10">
-        <v>0.02949793146607036</v>
+        <v>0.03289038044099983</v>
       </c>
       <c r="AC10">
-        <v>0.00840952996062734</v>
+        <v>0.01652579115081896</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.0007499701399269514</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.003634369373992605</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.0001029483894396409</v>
       </c>
       <c r="AG10">
-        <v>0.005641830494247992</v>
+        <v>0.01437805771382704</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.0002496687258248747</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.0007696247816719223</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.006718525573551116</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.0001005805688896348</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.0008473206810719783</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.005501845204216263</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.230669321296255</v>
+        <v>0.1897377161752974</v>
       </c>
       <c r="I11">
-        <v>0.06306857811252531</v>
+        <v>0.05914308555930488</v>
       </c>
       <c r="J11">
-        <v>0.06852800885375566</v>
+        <v>0.06339707827724282</v>
       </c>
       <c r="K11">
-        <v>0.1185577102089635</v>
+        <v>0.1023802608347892</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.008829117985228677</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.087452191732673E-05</v>
       </c>
       <c r="N11">
-        <v>0.01640562928572928</v>
+        <v>0.02278327921400716</v>
       </c>
       <c r="O11">
-        <v>0.02450670388046144</v>
+        <v>0.02909564289566386</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.001989995801889663</v>
       </c>
       <c r="Q11">
-        <v>0.03681623489465801</v>
+        <v>0.03868723912201737</v>
       </c>
       <c r="R11">
-        <v>0.07805908469228297</v>
+        <v>0.07082370005027991</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.009740797929282776</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.001432138445349899</v>
       </c>
       <c r="U11">
-        <v>0.07205424458002745</v>
+        <v>0.06614472392242086</v>
       </c>
       <c r="V11">
-        <v>0.15403567616904</v>
+        <v>0.1300247197527538</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.0005519927422496808</v>
       </c>
       <c r="X11">
-        <v>0.05323055470394629</v>
+        <v>0.05147728999880172</v>
       </c>
       <c r="Y11">
-        <v>0.01191041513732167</v>
+        <v>0.01928060482188033</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.005173695398838055</v>
       </c>
       <c r="AA11">
-        <v>0.02629146534781935</v>
+        <v>0.03048633043164783</v>
       </c>
       <c r="AB11">
-        <v>0.02270401398128271</v>
+        <v>0.0276909855115355</v>
       </c>
       <c r="AC11">
-        <v>0.01372068509132533</v>
+        <v>0.02069116859067684</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.001963814697867492</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.003353640507472954</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.007393087588484667</v>
       </c>
       <c r="AG11">
-        <v>0.009147936910197111</v>
+        <v>0.01712807961940811</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.000822864086503486</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.004680046481005777</v>
       </c>
       <c r="AJ11">
-        <v>0.0002937368544089745</v>
+        <v>0.01022887998746993</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>9.494344717136839E-05</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.00068595740533018</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.004076248196210624</v>
       </c>
     </row>
   </sheetData>
@@ -2041,100 +2041,100 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.128366961095535</v>
+        <v>0.1125328188447437</v>
       </c>
       <c r="I2">
-        <v>0.1457316692176595</v>
+        <v>0.1364028400478831</v>
       </c>
       <c r="J2">
-        <v>0.1770598978183449</v>
+        <v>0.1714261915429005</v>
       </c>
       <c r="K2">
-        <v>0.2028139183976723</v>
+        <v>0.2019971570315884</v>
       </c>
       <c r="L2">
-        <v>0.3381784901776643</v>
+        <v>0.3201193015293831</v>
       </c>
       <c r="M2">
-        <v>0.4150236335052543</v>
+        <v>0.3914991853613469</v>
       </c>
       <c r="N2">
-        <v>0.4150236335052543</v>
+        <v>0.3915342960033557</v>
       </c>
       <c r="O2">
-        <v>0.5079162604477173</v>
+        <v>0.4757320709527482</v>
       </c>
       <c r="P2">
-        <v>0.5079162604477173</v>
+        <v>0.4766341722089543</v>
       </c>
       <c r="Q2">
-        <v>0.5362972391159082</v>
+        <v>0.5093034145092097</v>
       </c>
       <c r="R2">
-        <v>0.5362972391159082</v>
+        <v>0.512799589298165</v>
       </c>
       <c r="S2">
-        <v>0.7140542494137089</v>
+        <v>0.6647825978519259</v>
       </c>
       <c r="T2">
-        <v>0.8974630939967739</v>
+        <v>0.8212799962141379</v>
       </c>
       <c r="U2">
-        <v>0.8974630939967739</v>
+        <v>0.8224399624142474</v>
       </c>
       <c r="V2">
-        <v>0.8974630939967739</v>
+        <v>0.8254849949395936</v>
       </c>
       <c r="W2">
-        <v>0.9153670274163914</v>
+        <v>0.8497857211253275</v>
       </c>
       <c r="X2">
-        <v>0.9153670274163914</v>
+        <v>0.8563710047654874</v>
       </c>
       <c r="Y2">
-        <v>0.9392898402310562</v>
+        <v>0.8854792972080984</v>
       </c>
       <c r="Z2">
-        <v>0.9787079728571642</v>
+        <v>0.9269644411832905</v>
       </c>
       <c r="AA2">
-        <v>0.9787079728571642</v>
+        <v>0.9305804114113848</v>
       </c>
       <c r="AB2">
-        <v>0.9787079728571642</v>
+        <v>0.9310004190801557</v>
       </c>
       <c r="AC2">
-        <v>0.9911097869437669</v>
+        <v>0.950906339935768</v>
       </c>
       <c r="AD2">
-        <v>0.9911097869437669</v>
+        <v>0.9524522932773718</v>
       </c>
       <c r="AE2">
-        <v>0.9948024142546209</v>
+        <v>0.9654017709614557</v>
       </c>
       <c r="AF2">
-        <v>0.9948024142546209</v>
+        <v>0.9659582365239947</v>
       </c>
       <c r="AG2">
-        <v>0.9948024142546209</v>
+        <v>0.9752200649472452</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9893716247653852</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9967097610254447</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9967606322446125</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9974332611567127</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>0.999150061100286</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -2160,97 +2160,97 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3886058366686349</v>
+        <v>0.3073399039778106</v>
       </c>
       <c r="I3">
-        <v>0.3886058366686349</v>
+        <v>0.3100686029141494</v>
       </c>
       <c r="J3">
-        <v>0.4848691579520205</v>
+        <v>0.3937240244393641</v>
       </c>
       <c r="K3">
-        <v>0.5682943684671112</v>
+        <v>0.4675564266918231</v>
       </c>
       <c r="L3">
-        <v>0.5986452739291074</v>
+        <v>0.5007792773650743</v>
       </c>
       <c r="M3">
-        <v>0.6019702845946912</v>
+        <v>0.513323393430096</v>
       </c>
       <c r="N3">
-        <v>0.6019702845946912</v>
+        <v>0.5216895122204617</v>
       </c>
       <c r="O3">
-        <v>0.6019702845946912</v>
+        <v>0.525879175847593</v>
       </c>
       <c r="P3">
-        <v>0.6019702845946912</v>
+        <v>0.5262598369607464</v>
       </c>
       <c r="Q3">
-        <v>0.6019702845946912</v>
+        <v>0.5280361735743525</v>
       </c>
       <c r="R3">
-        <v>0.641390497110688</v>
+        <v>0.5681983613190674</v>
       </c>
       <c r="S3">
-        <v>0.7639562182148162</v>
+        <v>0.6719789387197825</v>
       </c>
       <c r="T3">
-        <v>0.7639562182148162</v>
+        <v>0.6817496201052506</v>
       </c>
       <c r="U3">
-        <v>0.7649630700368391</v>
+        <v>0.6925200079785946</v>
       </c>
       <c r="V3">
-        <v>0.8380901435208061</v>
+        <v>0.7584728397587356</v>
       </c>
       <c r="W3">
-        <v>0.8406007561998696</v>
+        <v>0.7703938230854857</v>
       </c>
       <c r="X3">
-        <v>0.8584036991687265</v>
+        <v>0.7940156600559791</v>
       </c>
       <c r="Y3">
-        <v>0.894327525535431</v>
+        <v>0.8315026046010239</v>
       </c>
       <c r="Z3">
-        <v>0.9172392419798008</v>
+        <v>0.8590333952498139</v>
       </c>
       <c r="AA3">
-        <v>0.9233650401920988</v>
+        <v>0.8737205205587044</v>
       </c>
       <c r="AB3">
-        <v>0.9288523705095661</v>
+        <v>0.887919125200563</v>
       </c>
       <c r="AC3">
-        <v>0.9555506743724838</v>
+        <v>0.918347205167204</v>
       </c>
       <c r="AD3">
-        <v>0.9555506743724838</v>
+        <v>0.9243614094079751</v>
       </c>
       <c r="AE3">
-        <v>0.9637251042731145</v>
+        <v>0.9406160354901856</v>
       </c>
       <c r="AF3">
-        <v>0.9637251042731145</v>
+        <v>0.945206550771358</v>
       </c>
       <c r="AG3">
-        <v>0.99897429064591</v>
+        <v>0.9821772977401435</v>
       </c>
       <c r="AH3">
-        <v>0.99897429064591</v>
+        <v>0.9830403639793497</v>
       </c>
       <c r="AI3">
-        <v>0.99897429064591</v>
+        <v>0.9832069319668834</v>
       </c>
       <c r="AJ3">
-        <v>0.99897429064591</v>
+        <v>0.9848539203463161</v>
       </c>
       <c r="AK3">
-        <v>0.99897429064591</v>
+        <v>0.9848574460364349</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999999</v>
+        <v>0.9956422626605719</v>
       </c>
       <c r="AM3">
         <v>0.9999999999999999</v>
@@ -2276,103 +2276,103 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01790854677863318</v>
+        <v>0.02439971406390821</v>
       </c>
       <c r="H4">
-        <v>0.2124700252489565</v>
+        <v>0.1908406409830336</v>
       </c>
       <c r="I4">
-        <v>0.2124700252489565</v>
+        <v>0.2005294667429121</v>
       </c>
       <c r="J4">
-        <v>0.4115093717710091</v>
+        <v>0.3705709102398395</v>
       </c>
       <c r="K4">
-        <v>0.5184388387725241</v>
+        <v>0.4665496202301451</v>
       </c>
       <c r="L4">
-        <v>0.5184388387725241</v>
+        <v>0.475172520306235</v>
       </c>
       <c r="M4">
-        <v>0.5204911397528438</v>
+        <v>0.4868227126783454</v>
       </c>
       <c r="N4">
-        <v>0.5204911397528438</v>
+        <v>0.4879165716379075</v>
       </c>
       <c r="O4">
-        <v>0.5204911397528438</v>
+        <v>0.4936485086098683</v>
       </c>
       <c r="P4">
-        <v>0.5204911397528438</v>
+        <v>0.4991060305697633</v>
       </c>
       <c r="Q4">
-        <v>0.5864675819728292</v>
+        <v>0.5621556674088202</v>
       </c>
       <c r="R4">
-        <v>0.6098689842431592</v>
+        <v>0.5909720183697641</v>
       </c>
       <c r="S4">
-        <v>0.6098689842431592</v>
+        <v>0.5911500288313633</v>
       </c>
       <c r="T4">
-        <v>0.6690304935880387</v>
+        <v>0.6487199868344279</v>
       </c>
       <c r="U4">
-        <v>0.8666044545681985</v>
+        <v>0.8175831586905866</v>
       </c>
       <c r="V4">
-        <v>0.8666044545681985</v>
+        <v>0.820595799439953</v>
       </c>
       <c r="W4">
-        <v>0.9145446580750919</v>
+        <v>0.8691430490408233</v>
       </c>
       <c r="X4">
-        <v>0.9145446580750919</v>
+        <v>0.8711447995087629</v>
       </c>
       <c r="Y4">
-        <v>0.9145446580750919</v>
+        <v>0.8729396453526181</v>
       </c>
       <c r="Z4">
-        <v>0.9753272117831239</v>
+        <v>0.9318130354879961</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9616516689558032</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9618944030247285</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9625998429007055</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9648921577779014</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9652150848237132</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9750307847029258</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9841888894574687</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9927674560243804</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9988857173747873</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9996112968226114</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.999782986250351</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -2398,97 +2398,97 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.277331516974568</v>
+        <v>0.2289412844483868</v>
       </c>
       <c r="I5">
-        <v>0.277331516974568</v>
+        <v>0.2345172762499981</v>
       </c>
       <c r="J5">
-        <v>0.4073384267372774</v>
+        <v>0.3471521304531117</v>
       </c>
       <c r="K5">
-        <v>0.4432592513258711</v>
+        <v>0.3855100738980794</v>
       </c>
       <c r="L5">
-        <v>0.4432592513258711</v>
+        <v>0.3954548479989328</v>
       </c>
       <c r="M5">
-        <v>0.4432592513258711</v>
+        <v>0.3958287976649204</v>
       </c>
       <c r="N5">
-        <v>0.4432592513258711</v>
+        <v>0.3989817268376376</v>
       </c>
       <c r="O5">
-        <v>0.4432592513258711</v>
+        <v>0.4006618193850837</v>
       </c>
       <c r="P5">
-        <v>0.4432592513258711</v>
+        <v>0.4056128435520994</v>
       </c>
       <c r="Q5">
-        <v>0.4432592513258711</v>
+        <v>0.4082058589791866</v>
       </c>
       <c r="R5">
-        <v>0.4999263310794432</v>
+        <v>0.4629420770712832</v>
       </c>
       <c r="S5">
-        <v>0.6074119023016965</v>
+        <v>0.5577973047777928</v>
       </c>
       <c r="T5">
-        <v>0.6074119023016965</v>
+        <v>0.5669731367365968</v>
       </c>
       <c r="U5">
-        <v>0.6074119023016965</v>
+        <v>0.5679364909388072</v>
       </c>
       <c r="V5">
-        <v>0.635340609924972</v>
+        <v>0.5999850023619936</v>
       </c>
       <c r="W5">
-        <v>0.6702718030404613</v>
+        <v>0.6375616743949858</v>
       </c>
       <c r="X5">
-        <v>0.6736710837356457</v>
+        <v>0.6502452600534904</v>
       </c>
       <c r="Y5">
-        <v>0.7491171269415423</v>
+        <v>0.7198066607419028</v>
       </c>
       <c r="Z5">
-        <v>0.7491171269415423</v>
+        <v>0.7265028043480658</v>
       </c>
       <c r="AA5">
-        <v>0.7589928833521968</v>
+        <v>0.7442992885595822</v>
       </c>
       <c r="AB5">
-        <v>0.7589928833521968</v>
+        <v>0.7504316969227258</v>
       </c>
       <c r="AC5">
-        <v>0.8328842576838923</v>
+        <v>0.8187657535143591</v>
       </c>
       <c r="AD5">
-        <v>0.8328842576838923</v>
+        <v>0.8196122854482086</v>
       </c>
       <c r="AE5">
-        <v>0.9047919848051216</v>
+        <v>0.8863803380281459</v>
       </c>
       <c r="AF5">
-        <v>0.923300263276908</v>
+        <v>0.9109918264941789</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9815429642018588</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9824606296009482</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9867982904575211</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9907988435688214</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999999</v>
+        <v>0.9928973289904364</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999999</v>
+        <v>0.9982119533529036</v>
       </c>
       <c r="AM5">
         <v>0.9999999999999999</v>
@@ -2505,97 +2505,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05421744278880267</v>
+        <v>0.05367263451208866</v>
       </c>
       <c r="E6">
-        <v>0.05421744278880267</v>
+        <v>0.05367263451208866</v>
       </c>
       <c r="F6">
-        <v>0.05421744278880267</v>
+        <v>0.05580944797870802</v>
       </c>
       <c r="G6">
-        <v>0.05421744278880267</v>
+        <v>0.05580944797870802</v>
       </c>
       <c r="H6">
-        <v>0.08621874558012492</v>
+        <v>0.09070653193435013</v>
       </c>
       <c r="I6">
-        <v>0.2078039605234019</v>
+        <v>0.2013137649907834</v>
       </c>
       <c r="J6">
-        <v>0.2192189081016848</v>
+        <v>0.2188126801772683</v>
       </c>
       <c r="K6">
-        <v>0.2555364315742681</v>
+        <v>0.2573575364112174</v>
       </c>
       <c r="L6">
-        <v>0.2555364315742681</v>
+        <v>0.2647462352394872</v>
       </c>
       <c r="M6">
-        <v>0.3193633721324098</v>
+        <v>0.3265401550518462</v>
       </c>
       <c r="N6">
-        <v>0.3193633721324098</v>
+        <v>0.3265401550518462</v>
       </c>
       <c r="O6">
-        <v>0.5592381629540422</v>
+        <v>0.5371175860119912</v>
       </c>
       <c r="P6">
-        <v>0.6544083673880958</v>
+        <v>0.6254006725100558</v>
       </c>
       <c r="Q6">
-        <v>0.6544083673880958</v>
+        <v>0.6254006725100558</v>
       </c>
       <c r="R6">
-        <v>0.6544083673880958</v>
+        <v>0.6255067830107136</v>
       </c>
       <c r="S6">
-        <v>0.7001937145458151</v>
+        <v>0.672053191372078</v>
       </c>
       <c r="T6">
-        <v>0.7001937145458151</v>
+        <v>0.6755229694749703</v>
       </c>
       <c r="U6">
-        <v>0.7746055065602513</v>
+        <v>0.7462624763097676</v>
       </c>
       <c r="V6">
-        <v>0.8786240723603778</v>
+        <v>0.8420235880718633</v>
       </c>
       <c r="W6">
-        <v>0.8786240723603778</v>
+        <v>0.8420235880718633</v>
       </c>
       <c r="X6">
-        <v>0.8983886814699581</v>
+        <v>0.8665790617886722</v>
       </c>
       <c r="Y6">
-        <v>0.9203439852032805</v>
+        <v>0.8929859596352565</v>
       </c>
       <c r="Z6">
-        <v>0.9754930128410355</v>
+        <v>0.9474459054638523</v>
       </c>
       <c r="AA6">
-        <v>0.986348602048855</v>
+        <v>0.9644720895023972</v>
       </c>
       <c r="AB6">
-        <v>0.986348602048855</v>
+        <v>0.9699675279920491</v>
       </c>
       <c r="AC6">
-        <v>0.9914767222080709</v>
+        <v>0.9821532498848415</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9972083250400522</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9972083250400522</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9972083250400522</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9972083250400522</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9972083250400522</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2636,100 +2636,100 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1096133196531939</v>
+        <v>0.09495409484635667</v>
       </c>
       <c r="I7">
-        <v>0.1110158054283562</v>
+        <v>0.1060410695857476</v>
       </c>
       <c r="J7">
-        <v>0.2669068531538759</v>
+        <v>0.2368619962402193</v>
       </c>
       <c r="K7">
-        <v>0.4037710581652922</v>
+        <v>0.3529364650219179</v>
       </c>
       <c r="L7">
-        <v>0.4037710581652922</v>
+        <v>0.3532052370865025</v>
       </c>
       <c r="M7">
-        <v>0.4037710581652922</v>
+        <v>0.3532267205510533</v>
       </c>
       <c r="N7">
-        <v>0.4583868646375239</v>
+        <v>0.405555850056776</v>
       </c>
       <c r="O7">
-        <v>0.4834156831761639</v>
+        <v>0.4349540457391191</v>
       </c>
       <c r="P7">
-        <v>0.4834156831761639</v>
+        <v>0.4360142607895582</v>
       </c>
       <c r="Q7">
-        <v>0.4967578844395302</v>
+        <v>0.4563549259128608</v>
       </c>
       <c r="R7">
-        <v>0.5710851944743819</v>
+        <v>0.5239611490101407</v>
       </c>
       <c r="S7">
-        <v>0.6014271714049525</v>
+        <v>0.5574772252875601</v>
       </c>
       <c r="T7">
-        <v>0.6118660136412214</v>
+        <v>0.5755676872517809</v>
       </c>
       <c r="U7">
-        <v>0.731582805918065</v>
+        <v>0.6783523210715285</v>
       </c>
       <c r="V7">
-        <v>0.901265374058707</v>
+        <v>0.8198621506543009</v>
       </c>
       <c r="W7">
-        <v>0.9079928202537313</v>
+        <v>0.8350761529665574</v>
       </c>
       <c r="X7">
-        <v>0.914766220165328</v>
+        <v>0.8503257709905593</v>
       </c>
       <c r="Y7">
-        <v>0.9222036749284217</v>
+        <v>0.8660900543765422</v>
       </c>
       <c r="Z7">
-        <v>0.9222036749284217</v>
+        <v>0.8685908332197937</v>
       </c>
       <c r="AA7">
-        <v>0.9222036749284217</v>
+        <v>0.8730623510731531</v>
       </c>
       <c r="AB7">
-        <v>0.9222036749284217</v>
+        <v>0.8799847028288809</v>
       </c>
       <c r="AC7">
-        <v>0.9463556285728861</v>
+        <v>0.9087032980427505</v>
       </c>
       <c r="AD7">
-        <v>0.9463556285728861</v>
+        <v>0.9122044012557132</v>
       </c>
       <c r="AE7">
-        <v>0.9531704879773608</v>
+        <v>0.9274861518134381</v>
       </c>
       <c r="AF7">
-        <v>0.9531704879773608</v>
+        <v>0.9335341854789212</v>
       </c>
       <c r="AG7">
-        <v>0.9924498083702902</v>
+        <v>0.9739770104998139</v>
       </c>
       <c r="AH7">
-        <v>0.9924498083702902</v>
+        <v>0.9744966271297527</v>
       </c>
       <c r="AI7">
-        <v>0.9924498083702902</v>
+        <v>0.9748220758668452</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>0.9906737342040611</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999998</v>
+        <v>0.9987810109942112</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999998</v>
+        <v>0.998791914240579</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2755,100 +2755,100 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2442066912959785</v>
+        <v>0.2063767059310922</v>
       </c>
       <c r="I8">
-        <v>0.2442066912959785</v>
+        <v>0.2090797416147366</v>
       </c>
       <c r="J8">
-        <v>0.3524830148167596</v>
+        <v>0.3061492139150248</v>
       </c>
       <c r="K8">
-        <v>0.4851330746543757</v>
+        <v>0.4228186161915639</v>
       </c>
       <c r="L8">
-        <v>0.4851330746543757</v>
+        <v>0.4237981497194818</v>
       </c>
       <c r="M8">
-        <v>0.4851330746543757</v>
+        <v>0.4243838018365934</v>
       </c>
       <c r="N8">
-        <v>0.5025883907545399</v>
+        <v>0.4484203438270898</v>
       </c>
       <c r="O8">
-        <v>0.5265565333820251</v>
+        <v>0.4776941191339569</v>
       </c>
       <c r="P8">
-        <v>0.5265565333820251</v>
+        <v>0.4778356544734364</v>
       </c>
       <c r="Q8">
-        <v>0.6063114685613999</v>
+        <v>0.5519698981714973</v>
       </c>
       <c r="R8">
-        <v>0.6805999314923386</v>
+        <v>0.6217083253277806</v>
       </c>
       <c r="S8">
-        <v>0.6805999314923386</v>
+        <v>0.627591617004462</v>
       </c>
       <c r="T8">
-        <v>0.6805999314923386</v>
+        <v>0.6339257172614358</v>
       </c>
       <c r="U8">
-        <v>0.8216526183450943</v>
+        <v>0.7573520196279925</v>
       </c>
       <c r="V8">
-        <v>0.9417143497683428</v>
+        <v>0.8638986261118636</v>
       </c>
       <c r="W8">
-        <v>0.9417143497683428</v>
+        <v>0.8647628480902358</v>
       </c>
       <c r="X8">
-        <v>0.9778260789500512</v>
+        <v>0.9038017838562697</v>
       </c>
       <c r="Y8">
-        <v>0.9778260789500512</v>
+        <v>0.9109455798716189</v>
       </c>
       <c r="Z8">
-        <v>0.9778260789500512</v>
+        <v>0.9147143103188443</v>
       </c>
       <c r="AA8">
-        <v>0.986534462897204</v>
+        <v>0.9317170822103499</v>
       </c>
       <c r="AB8">
-        <v>0.9963636646539841</v>
+        <v>0.9496211500828765</v>
       </c>
       <c r="AC8">
-        <v>0.9963636646539841</v>
+        <v>0.9587209940661624</v>
       </c>
       <c r="AD8">
-        <v>0.9963636646539841</v>
+        <v>0.9587636367688839</v>
       </c>
       <c r="AE8">
-        <v>0.9963636646539841</v>
+        <v>0.9604968353356393</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9734209630617136</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9816560707447882</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9816648863114171</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9915564384860766</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9980298960996723</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9987160353268145</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9990341248975302</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2874,100 +2874,100 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1358558260489801</v>
+        <v>0.1152620725371692</v>
       </c>
       <c r="I9">
-        <v>0.2010626977019551</v>
+        <v>0.1757848263525465</v>
       </c>
       <c r="J9">
-        <v>0.3006967864933702</v>
+        <v>0.2629820359720705</v>
       </c>
       <c r="K9">
-        <v>0.4639351545389517</v>
+        <v>0.3994602992735516</v>
       </c>
       <c r="L9">
-        <v>0.4923184439186889</v>
+        <v>0.4314518763182947</v>
       </c>
       <c r="M9">
-        <v>0.4923184439186889</v>
+        <v>0.4317329776854512</v>
       </c>
       <c r="N9">
-        <v>0.5134219251884725</v>
+        <v>0.4580841069730968</v>
       </c>
       <c r="O9">
-        <v>0.5681319723345478</v>
+        <v>0.5104738455561582</v>
       </c>
       <c r="P9">
-        <v>0.5681319723345478</v>
+        <v>0.5192752695824422</v>
       </c>
       <c r="Q9">
-        <v>0.5896405326650611</v>
+        <v>0.5459402570439612</v>
       </c>
       <c r="R9">
-        <v>0.6798346299721216</v>
+        <v>0.6258232932689769</v>
       </c>
       <c r="S9">
-        <v>0.6858878264233786</v>
+        <v>0.64051335347813</v>
       </c>
       <c r="T9">
-        <v>0.6858878264233786</v>
+        <v>0.6437520605144454</v>
       </c>
       <c r="U9">
-        <v>0.757695681904305</v>
+        <v>0.709389304143929</v>
       </c>
       <c r="V9">
-        <v>0.9258985969192259</v>
+        <v>0.8497141341948728</v>
       </c>
       <c r="W9">
-        <v>0.9258985969192259</v>
+        <v>0.8547802155912284</v>
       </c>
       <c r="X9">
-        <v>0.9613852625013458</v>
+        <v>0.8922755396803157</v>
       </c>
       <c r="Y9">
-        <v>0.9736107510225505</v>
+        <v>0.911747936241781</v>
       </c>
       <c r="Z9">
-        <v>0.9736107510225505</v>
+        <v>0.9179249382382093</v>
       </c>
       <c r="AA9">
-        <v>0.9835541614604325</v>
+        <v>0.9356291642638332</v>
       </c>
       <c r="AB9">
-        <v>0.9909732418431479</v>
+        <v>0.9513775211809884</v>
       </c>
       <c r="AC9">
-        <v>0.9999999999999999</v>
+        <v>0.9683715184169955</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999999</v>
+        <v>0.9713887054514192</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999999</v>
+        <v>0.9732881557302178</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999999</v>
+        <v>0.975469199976603</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999999</v>
+        <v>0.985381926045371</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999999</v>
+        <v>0.985450066127323</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>0.986756739455524</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>0.9923408307640473</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999999</v>
+        <v>0.9930334860752622</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999999</v>
+        <v>0.994104138849108</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -2993,97 +2993,97 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03344966703277095</v>
+        <v>0.03595692531476677</v>
       </c>
       <c r="I10">
-        <v>0.2434200064326387</v>
+        <v>0.2088938063539412</v>
       </c>
       <c r="J10">
-        <v>0.2717916542585048</v>
+        <v>0.2409101912390695</v>
       </c>
       <c r="K10">
-        <v>0.4516562996670582</v>
+        <v>0.3904850684138655</v>
       </c>
       <c r="L10">
-        <v>0.4950400781404494</v>
+        <v>0.4341508593648767</v>
       </c>
       <c r="M10">
-        <v>0.4950400781404494</v>
+        <v>0.4371167878103466</v>
       </c>
       <c r="N10">
-        <v>0.5067250142057647</v>
+        <v>0.4561842925020395</v>
       </c>
       <c r="O10">
-        <v>0.5944230602336411</v>
+        <v>0.5342379334774903</v>
       </c>
       <c r="P10">
-        <v>0.6058472626740983</v>
+        <v>0.5531031090033693</v>
       </c>
       <c r="Q10">
-        <v>0.6145342964986334</v>
+        <v>0.5698442430173312</v>
       </c>
       <c r="R10">
-        <v>0.6835566555818643</v>
+        <v>0.6334055600258737</v>
       </c>
       <c r="S10">
-        <v>0.6840825709335625</v>
+        <v>0.6438136700824715</v>
       </c>
       <c r="T10">
-        <v>0.6840825709335625</v>
+        <v>0.6447633637163183</v>
       </c>
       <c r="U10">
-        <v>0.7225978110808098</v>
+        <v>0.6846511712990649</v>
       </c>
       <c r="V10">
-        <v>0.8869004277329702</v>
+        <v>0.8221499217435051</v>
       </c>
       <c r="W10">
-        <v>0.8942915658303408</v>
+        <v>0.8378854413047796</v>
       </c>
       <c r="X10">
-        <v>0.9253120908639019</v>
+        <v>0.8719573536120722</v>
       </c>
       <c r="Y10">
-        <v>0.9468476191783557</v>
+        <v>0.8986689130881252</v>
       </c>
       <c r="Z10">
-        <v>0.9468476191783557</v>
+        <v>0.9000789249491703</v>
       </c>
       <c r="AA10">
-        <v>0.9564507080790544</v>
+        <v>0.9175309172557691</v>
       </c>
       <c r="AB10">
-        <v>0.9859486395451248</v>
+        <v>0.9504212976967689</v>
       </c>
       <c r="AC10">
-        <v>0.9943581695057522</v>
+        <v>0.9669470888475878</v>
       </c>
       <c r="AD10">
-        <v>0.9943581695057522</v>
+        <v>0.9676970589875148</v>
       </c>
       <c r="AE10">
-        <v>0.9943581695057522</v>
+        <v>0.9713314283615074</v>
       </c>
       <c r="AF10">
-        <v>0.9943581695057522</v>
+        <v>0.9714343767509471</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9858124344647742</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9860621031905991</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.986831727972271</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9935502535458222</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9936508341147118</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.9944981547957837</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -3112,100 +3112,100 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.230669321296255</v>
+        <v>0.1897377161752974</v>
       </c>
       <c r="I11">
-        <v>0.2937378994087803</v>
+        <v>0.2488808017346023</v>
       </c>
       <c r="J11">
-        <v>0.3622659082625359</v>
+        <v>0.3122778800118451</v>
       </c>
       <c r="K11">
-        <v>0.4808236184714993</v>
+        <v>0.4146581408466343</v>
       </c>
       <c r="L11">
-        <v>0.4808236184714993</v>
+        <v>0.4234872588318629</v>
       </c>
       <c r="M11">
-        <v>0.4808236184714993</v>
+        <v>0.4234981333537803</v>
       </c>
       <c r="N11">
-        <v>0.4972292477572287</v>
+        <v>0.4462814125677874</v>
       </c>
       <c r="O11">
-        <v>0.52173595163769</v>
+        <v>0.4753770554634513</v>
       </c>
       <c r="P11">
-        <v>0.52173595163769</v>
+        <v>0.477367051265341</v>
       </c>
       <c r="Q11">
-        <v>0.5585521865323481</v>
+        <v>0.5160542903873583</v>
       </c>
       <c r="R11">
-        <v>0.636611271224631</v>
+        <v>0.5868779904376382</v>
       </c>
       <c r="S11">
-        <v>0.636611271224631</v>
+        <v>0.5966187883669209</v>
       </c>
       <c r="T11">
-        <v>0.636611271224631</v>
+        <v>0.5980509268122709</v>
       </c>
       <c r="U11">
-        <v>0.7086655158046584</v>
+        <v>0.6641956507346918</v>
       </c>
       <c r="V11">
-        <v>0.8627011919736984</v>
+        <v>0.7942203704874455</v>
       </c>
       <c r="W11">
-        <v>0.8627011919736984</v>
+        <v>0.7947723632296952</v>
       </c>
       <c r="X11">
-        <v>0.9159317466776448</v>
+        <v>0.846249653228497</v>
       </c>
       <c r="Y11">
-        <v>0.9278421618149665</v>
+        <v>0.8655302580503773</v>
       </c>
       <c r="Z11">
-        <v>0.9278421618149665</v>
+        <v>0.8707039534492154</v>
       </c>
       <c r="AA11">
-        <v>0.9541336271627858</v>
+        <v>0.9011902838808632</v>
       </c>
       <c r="AB11">
-        <v>0.9768376411440686</v>
+        <v>0.9288812693923987</v>
       </c>
       <c r="AC11">
-        <v>0.9905583262353939</v>
+        <v>0.9495724379830756</v>
       </c>
       <c r="AD11">
-        <v>0.9905583262353939</v>
+        <v>0.951536252680943</v>
       </c>
       <c r="AE11">
-        <v>0.9905583262353939</v>
+        <v>0.954889893188416</v>
       </c>
       <c r="AF11">
-        <v>0.9905583262353939</v>
+        <v>0.9622829807769007</v>
       </c>
       <c r="AG11">
-        <v>0.999706263145591</v>
+        <v>0.9794110603963088</v>
       </c>
       <c r="AH11">
-        <v>0.999706263145591</v>
+        <v>0.9802339244828122</v>
       </c>
       <c r="AI11">
-        <v>0.999706263145591</v>
+        <v>0.9849139709638179</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>0.9951428509512878</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>0.9952377943984592</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>0.9959237518037893</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3273,16 +3273,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5079162604477173</v>
+        <v>0.5093034145092097</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -3314,16 +3314,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5682943684671112</v>
+        <v>0.5007792773650743</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -3355,16 +3355,16 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5184388387725241</v>
+        <v>0.5621556674088202</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6074119023016965</v>
+        <v>0.5577973047777928</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5592381629540422</v>
+        <v>0.5371175860119912</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5710851944743819</v>
+        <v>0.5239611490101407</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3519,16 +3519,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5025883907545399</v>
+        <v>0.5519698981714973</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>35</v>
@@ -3560,16 +3560,16 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5134219251884725</v>
+        <v>0.5104738455561582</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -3601,16 +3601,16 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5067250142057647</v>
+        <v>0.5342379334774903</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>35</v>
@@ -3642,16 +3642,16 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.52173595163769</v>
+        <v>0.5160542903873583</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -3737,16 +3737,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7140542494137089</v>
+        <v>0.8212799962141379</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -3778,16 +3778,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7639562182148162</v>
+        <v>0.7584728397587356</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8666044545681985</v>
+        <v>0.8175831586905866</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7491171269415423</v>
+        <v>0.7198066607419028</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -3901,16 +3901,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7001937145458151</v>
+        <v>0.7462624763097676</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -3942,16 +3942,16 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.731582805918065</v>
+        <v>0.8198621506543009</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>35</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8216526183450943</v>
+        <v>0.7573520196279925</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.757695681904305</v>
+        <v>0.709389304143929</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -4065,16 +4065,16 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7225978110808098</v>
+        <v>0.8221499217435051</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>35</v>
@@ -4106,16 +4106,16 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7086655158046584</v>
+        <v>0.7942203704874455</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8974630939967739</v>
+        <v>0.8212799962141379</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -4242,16 +4242,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8380901435208061</v>
+        <v>0.8315026046010239</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8666044545681985</v>
+        <v>0.8175831586905866</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8328842576838923</v>
+        <v>0.8187657535143591</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8786240723603778</v>
+        <v>0.8420235880718633</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.901265374058707</v>
+        <v>0.8198621506543009</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -4447,16 +4447,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8216526183450943</v>
+        <v>0.8638986261118636</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>35</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9258985969192259</v>
+        <v>0.8497141341948728</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8869004277329702</v>
+        <v>0.8221499217435051</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -4570,16 +4570,16 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8627011919736984</v>
+        <v>0.846249653228497</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -4665,16 +4665,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9153670274163914</v>
+        <v>0.9269644411832905</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -4706,16 +4706,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9172392419798008</v>
+        <v>0.918347205167204</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -4747,16 +4747,16 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9145446580750919</v>
+        <v>0.9318130354879961</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -4788,16 +4788,16 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9047919848051216</v>
+        <v>0.9109918264941789</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -4829,16 +4829,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9474459054638523</v>
+      </c>
+      <c r="G6">
         <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9203439852032805</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -4870,16 +4870,16 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.901265374058707</v>
+        <v>0.9087032980427505</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>35</v>
@@ -4911,16 +4911,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9417143497683428</v>
+        <v>0.9038017838562697</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>35</v>
@@ -4952,16 +4952,16 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9258985969192259</v>
+        <v>0.911747936241781</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -4993,16 +4993,16 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9253120908639019</v>
+        <v>0.9000789249491703</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>35</v>
@@ -5034,16 +5034,16 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9159317466776448</v>
+        <v>0.9011902838808632</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>35</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/35_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/35_11R22.xlsx
@@ -168,40 +168,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -211,9 +214,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -719,100 +719,100 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1125328188447437</v>
+        <v>0.154422316616989</v>
       </c>
       <c r="I2">
-        <v>0.02387002120313935</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03502335149501741</v>
+        <v>0.009398898352196625</v>
       </c>
       <c r="K2">
-        <v>0.03057096548868786</v>
+        <v>0.001068300037557083</v>
       </c>
       <c r="L2">
-        <v>0.1181221444977947</v>
+        <v>0.1648801760207075</v>
       </c>
       <c r="M2">
-        <v>0.07137988383196374</v>
+        <v>0.07742347362076905</v>
       </c>
       <c r="N2">
-        <v>3.511064200879226E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.08419777494939248</v>
+        <v>0.1014062778943169</v>
       </c>
       <c r="P2">
-        <v>0.0009021012562061238</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03266924230025545</v>
+        <v>0.00499426271133303</v>
       </c>
       <c r="R2">
-        <v>0.003496174788955325</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1519830085537609</v>
+        <v>0.2282352527449316</v>
       </c>
       <c r="T2">
-        <v>0.156497398362212</v>
+        <v>0.2366818627370674</v>
       </c>
       <c r="U2">
-        <v>0.001159966200109526</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003045032525346208</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.02430072618573383</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.00658528364015994</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0291082924426109</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.04148514397519212</v>
+        <v>0.02148917926413189</v>
       </c>
       <c r="AA2">
-        <v>0.003615970228094294</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0004200076687709249</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01990592085561227</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.001545953341603764</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0129494776840839</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0005564655625389792</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.009261828423250528</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01415155981814003</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.007338136260059541</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.087121916783103E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0006726289121002028</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001716799943573323</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0008499388997137725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -838,100 +838,100 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3073399039778106</v>
+        <v>0.540800754885816</v>
       </c>
       <c r="I3">
-        <v>0.002728698936338759</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08365542152521467</v>
+        <v>0.1046257392043892</v>
       </c>
       <c r="K3">
-        <v>0.07383240225245909</v>
+        <v>0.08547127869664645</v>
       </c>
       <c r="L3">
-        <v>0.03322285067325116</v>
+        <v>0.006284418693380451</v>
       </c>
       <c r="M3">
-        <v>0.01254411606502169</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.008366118790365619</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.004189663627131393</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.000380661113153435</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001776336613606045</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.04016218774471494</v>
+        <v>0.01981582428207998</v>
       </c>
       <c r="S3">
-        <v>0.1037805774007152</v>
+        <v>0.1438689181828321</v>
       </c>
       <c r="T3">
-        <v>0.009770681385468098</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01077038787334389</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.06595283178014102</v>
+        <v>0.07010645885468628</v>
       </c>
       <c r="W3">
-        <v>0.01192098332675007</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02362183697049343</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03748694454504474</v>
+        <v>0.01459921635392355</v>
       </c>
       <c r="Z3">
-        <v>0.02753079064879</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01468712530889052</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01419860464185865</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03042807996664103</v>
+        <v>0.0008347373233730235</v>
       </c>
       <c r="AD3">
-        <v>0.006014204240770999</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01625462608221056</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004590515281172427</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.03697074696878556</v>
+        <v>0.01359265352287301</v>
       </c>
       <c r="AH3">
-        <v>0.0008630662392061265</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0001665679875337051</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.001646988379432753</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.52569011873658E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.01078481662413701</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004357737339428016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -954,100 +954,100 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02439971406390821</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1664409269191254</v>
+        <v>0.2315051720378952</v>
       </c>
       <c r="I4">
-        <v>0.009688825759878473</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1700414434969274</v>
+        <v>0.2376143229253223</v>
       </c>
       <c r="K4">
-        <v>0.09597870999030562</v>
+        <v>0.1119489067689926</v>
       </c>
       <c r="L4">
-        <v>0.008622900076089936</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01165019237211035</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00109385895956216</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.005731936971960797</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.00545752195989495</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.06304963683905687</v>
+        <v>0.05607673617426395</v>
       </c>
       <c r="R4">
-        <v>0.02881635096094397</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001780104615991019</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.05756995800306462</v>
+        <v>0.04677913009459594</v>
       </c>
       <c r="U4">
-        <v>0.1688631718561588</v>
+        <v>0.235615098901689</v>
       </c>
       <c r="V4">
-        <v>0.003012640749366401</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.04854724960087033</v>
+        <v>0.03146991380544042</v>
       </c>
       <c r="X4">
-        <v>0.002001750467939572</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001794845843855216</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.05887339013537791</v>
+        <v>0.04899071929180046</v>
       </c>
       <c r="AA4">
-        <v>0.02983863346780714</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0002427340689252705</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0007054398759770023</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002292314877195846</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003229270458118067</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.009815699879212585</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.009158104754542909</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.008578566566911656</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00611826135040681</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.000725579447824127</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001716894277396364</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002170137496489302</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1076,100 +1076,100 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2289412844483868</v>
+        <v>0.3654554449303588</v>
       </c>
       <c r="I5">
-        <v>0.005575991801611267</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1126348542031136</v>
+        <v>0.1518003540255069</v>
       </c>
       <c r="K5">
-        <v>0.03835794344496771</v>
+        <v>0.01535355493884878</v>
       </c>
       <c r="L5">
-        <v>0.009944774100853402</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0003739496659875126</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.003152929172717225</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001680092547446165</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.004951024167015627</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002593015427087212</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.05473621809209661</v>
+        <v>0.04544047060823558</v>
       </c>
       <c r="S5">
-        <v>0.0948552277065096</v>
+        <v>0.1191391528573917</v>
       </c>
       <c r="T5">
-        <v>0.009175831958804028</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0009633542022103586</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03204851142318648</v>
+        <v>0.003763118629103665</v>
       </c>
       <c r="W5">
-        <v>0.03757667203299223</v>
+        <v>0.01391835815570472</v>
       </c>
       <c r="X5">
-        <v>0.01268358565850458</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.06956140068841246</v>
+        <v>0.0726743537960967</v>
       </c>
       <c r="Z5">
-        <v>0.006696143606163007</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01779648421151637</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.006132408363143656</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.06833405659163329</v>
+        <v>0.07041972080619333</v>
       </c>
       <c r="AD5">
-        <v>0.0008465319338494982</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.06676805257993723</v>
+        <v>0.06754296903270417</v>
       </c>
       <c r="AF5">
-        <v>0.024611488466033</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.07055113770767996</v>
+        <v>0.07449250221985582</v>
       </c>
       <c r="AH5">
-        <v>0.0009176653990893483</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004337660856572903</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.004000553111300295</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002098485421614929</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.005314624362467203</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001788046647096288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1183,85 +1183,85 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05367263451208866</v>
+        <v>0.04474631166252167</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.002136813466619362</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0348970839556421</v>
+        <v>0.01013798846345578</v>
       </c>
       <c r="I6">
-        <v>0.1106072330564333</v>
+        <v>0.1496918887153984</v>
       </c>
       <c r="J6">
-        <v>0.01749891518648495</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0385448562339491</v>
+        <v>0.01686180098680657</v>
       </c>
       <c r="L6">
-        <v>0.007388698828269742</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06179391981235899</v>
+        <v>0.05971599607303156</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.210577430960145</v>
+        <v>0.3339634981643324</v>
       </c>
       <c r="P6">
-        <v>0.0882830864980646</v>
+        <v>0.1085425611943438</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001061105006577301</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.04654640836136437</v>
+        <v>0.03161078537942034</v>
       </c>
       <c r="T6">
-        <v>0.003469778102892307</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.07073950683479729</v>
+        <v>0.07620508734879267</v>
       </c>
       <c r="V6">
-        <v>0.09576111176209565</v>
+        <v>0.1223265466199807</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.02455547371680891</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02640689784658435</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0544599458285958</v>
+        <v>0.04619753539191616</v>
       </c>
       <c r="AA6">
-        <v>0.01702618403854482</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.005495438489651961</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01218572189279247</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0150550751552107</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.00279167495994796</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1314,100 +1314,100 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.09495409484635667</v>
+        <v>0.1273514295208137</v>
       </c>
       <c r="I7">
-        <v>0.0110869747393909</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1308209266544717</v>
+        <v>0.1976732824224748</v>
       </c>
       <c r="K7">
-        <v>0.1160744687816986</v>
+        <v>0.1687608251723457</v>
       </c>
       <c r="L7">
-        <v>0.0002687720645845796</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.14834645507673E-05</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.05232912950572276</v>
+        <v>0.04377932706530011</v>
       </c>
       <c r="O7">
-        <v>0.02939819568234307</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.001060215050439098</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.02034066512330255</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.06760622309727997</v>
+        <v>0.07373216856682709</v>
       </c>
       <c r="S7">
-        <v>0.03351607627741938</v>
+        <v>0.006893750752631674</v>
       </c>
       <c r="T7">
-        <v>0.01809046196422082</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.1027846338197477</v>
+        <v>0.1427042773210741</v>
       </c>
       <c r="V7">
-        <v>0.1415098295827723</v>
+        <v>0.2186303455783574</v>
       </c>
       <c r="W7">
-        <v>0.01521400231225639</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.01524961802400195</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01576428338598295</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.002500778843251514</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0044715178533594</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.006922351755727762</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02871859521386964</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.003501103212962708</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.01528175055772483</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.006048033665483154</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.04044282502089264</v>
+        <v>0.02047459360017538</v>
       </c>
       <c r="AH7">
-        <v>0.0005196166299388415</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.0003254487370925149</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.01585165833721586</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.008107276790150062</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1.090324636778013E-05</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.00120808575942095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1433,100 +1433,100 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2063767059310922</v>
+        <v>0.2974311591636233</v>
       </c>
       <c r="I8">
-        <v>0.002703035683644405</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09706947230028819</v>
+        <v>0.1131019585917476</v>
       </c>
       <c r="K8">
-        <v>0.1166694022765391</v>
+        <v>0.1461541117181344</v>
       </c>
       <c r="L8">
-        <v>0.0009795335279178907</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0005856521171115611</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.02403654199049641</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02927377530686712</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.0001415353394794875</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0741342436980609</v>
+        <v>0.07442535675347388</v>
       </c>
       <c r="R8">
-        <v>0.06973842715628333</v>
+        <v>0.06701251386932149</v>
       </c>
       <c r="S8">
-        <v>0.005883291676681376</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.006334100256973774</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.1234263023665568</v>
+        <v>0.1575485451015989</v>
       </c>
       <c r="V8">
-        <v>0.1065466064838712</v>
+        <v>0.129083632537249</v>
       </c>
       <c r="W8">
-        <v>0.00086422197837221</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.03903893576603392</v>
+        <v>0.01524272226485138</v>
       </c>
       <c r="Y8">
-        <v>0.00714379601534918</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.003768730447225406</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.01700277189150558</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.01790406787252665</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.009099843983285932</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>4.264270272145471E-05</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.00173319856675542</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.01292412772607419</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.008235107683074703</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>8.815566628927453E-06</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.00989155217465941</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.00647345761359572</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.0006861392271422158</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.0003180895707156252</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.0009658751024696008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1552,100 +1552,100 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1152620725371692</v>
+        <v>0.1681094051392021</v>
       </c>
       <c r="I9">
-        <v>0.06052275381537728</v>
+        <v>0.06018106098554554</v>
       </c>
       <c r="J9">
-        <v>0.08719720961952399</v>
+        <v>0.1127745150760755</v>
       </c>
       <c r="K9">
-        <v>0.1364782633014811</v>
+        <v>0.2099409147726734</v>
       </c>
       <c r="L9">
-        <v>0.03199157704474311</v>
+        <v>0.003926749870344763</v>
       </c>
       <c r="M9">
-        <v>0.0002811013671564506</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.02635112928764556</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05238973858306139</v>
+        <v>0.04414536877202751</v>
       </c>
       <c r="P9">
-        <v>0.008801424026284085</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.02666498746151906</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.07988303622501566</v>
+        <v>0.09835331580368213</v>
       </c>
       <c r="S9">
-        <v>0.01469006020915311</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.003238707036315491</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.06563724362948348</v>
+        <v>0.07026519118147859</v>
       </c>
       <c r="V9">
-        <v>0.1403248300509438</v>
+        <v>0.2175251081758833</v>
       </c>
       <c r="W9">
-        <v>0.00506608139635556</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.03749532408908726</v>
+        <v>0.01477837022308708</v>
       </c>
       <c r="Y9">
-        <v>0.01947239656146522</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.006177001996428385</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.01770422602562389</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.01574835691715512</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.01699399723600716</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.003017187034423659</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.001899450278798593</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.002181044246385216</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.009912726068768063</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>6.814008195203124E-05</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.00130667332820103</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.005584091308523341</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.000692655311214823</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.001070652773845742</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.005895861150892021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1671,100 +1671,100 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03595692531476677</v>
+        <v>0.0121541461665771</v>
       </c>
       <c r="I10">
-        <v>0.1729368810391744</v>
+        <v>0.2916396719693956</v>
       </c>
       <c r="J10">
-        <v>0.03201638488512829</v>
+        <v>0.004114108424554842</v>
       </c>
       <c r="K10">
-        <v>0.149574877174796</v>
+        <v>0.243973267791402</v>
       </c>
       <c r="L10">
-        <v>0.04366579095101126</v>
+        <v>0.02788284423991989</v>
       </c>
       <c r="M10">
-        <v>0.00296592844546989</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01906750469169285</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.07805364097545078</v>
+        <v>0.09804571073000179</v>
       </c>
       <c r="P10">
-        <v>0.01886517552587904</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01674113401396186</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.06356131700854245</v>
+        <v>0.06847645906412139</v>
       </c>
       <c r="S10">
-        <v>0.01040811005659777</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.0009496936338467656</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.03988780758274672</v>
+        <v>0.02017447798611496</v>
       </c>
       <c r="V10">
-        <v>0.1374987504444402</v>
+        <v>0.2193338772247602</v>
       </c>
       <c r="W10">
-        <v>0.01573551956127445</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.03407191230729258</v>
+        <v>0.008308080888245264</v>
       </c>
       <c r="Y10">
-        <v>0.02671155947605309</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.001410011861045063</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.01745199230659882</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03289038044099983</v>
+        <v>0.005897355514906768</v>
       </c>
       <c r="AC10">
-        <v>0.01652579115081896</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.0007499701399269514</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.003634369373992605</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.0001029483894396409</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.01437805771382704</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.0002496687258248747</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.0007696247816719223</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.006718525573551116</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.0001005805688896348</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.0008473206810719783</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.005501845204216263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1897377161752974</v>
+        <v>0.3180112170408878</v>
       </c>
       <c r="I11">
-        <v>0.05914308555930488</v>
+        <v>0.05801903475864575</v>
       </c>
       <c r="J11">
-        <v>0.06339707827724282</v>
+        <v>0.06648802651529467</v>
       </c>
       <c r="K11">
-        <v>0.1023802608347892</v>
+        <v>0.1440970572820033</v>
       </c>
       <c r="L11">
-        <v>0.008829117985228677</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.087452191732673E-05</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.02278327921400716</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.02909564289566386</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.001989995801889663</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.03868723912201737</v>
+        <v>0.01729484777963282</v>
       </c>
       <c r="R11">
-        <v>0.07082370005027991</v>
+        <v>0.0812731948843859</v>
       </c>
       <c r="S11">
-        <v>0.009740797929282776</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.001432138445349899</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.06614472392242086</v>
+        <v>0.0719581318638729</v>
       </c>
       <c r="V11">
-        <v>0.1300247197527538</v>
+        <v>0.1991325757270722</v>
       </c>
       <c r="W11">
-        <v>0.0005519927422496808</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.05147728999880172</v>
+        <v>0.04275771117050221</v>
       </c>
       <c r="Y11">
-        <v>0.01928060482188033</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.005173695398838055</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.03048633043164783</v>
+        <v>0.0009682029777026733</v>
       </c>
       <c r="AB11">
-        <v>0.0276909855115355</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.02069116859067684</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.001963814697867492</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.003353640507472954</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.007393087588484667</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.01712807961940811</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.000822864086503486</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.004680046481005777</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.01022887998746993</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>9.494344717136839E-05</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.00068595740533018</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.004076248196210624</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2041,100 +2041,100 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1125328188447437</v>
+        <v>0.154422316616989</v>
       </c>
       <c r="I2">
-        <v>0.1364028400478831</v>
+        <v>0.154422316616989</v>
       </c>
       <c r="J2">
-        <v>0.1714261915429005</v>
+        <v>0.1638212149691856</v>
       </c>
       <c r="K2">
-        <v>0.2019971570315884</v>
+        <v>0.1648895150067427</v>
       </c>
       <c r="L2">
-        <v>0.3201193015293831</v>
+        <v>0.3297696910274501</v>
       </c>
       <c r="M2">
-        <v>0.3914991853613469</v>
+        <v>0.4071931646482192</v>
       </c>
       <c r="N2">
-        <v>0.3915342960033557</v>
+        <v>0.4071931646482192</v>
       </c>
       <c r="O2">
-        <v>0.4757320709527482</v>
+        <v>0.5085994425425361</v>
       </c>
       <c r="P2">
-        <v>0.4766341722089543</v>
+        <v>0.5085994425425361</v>
       </c>
       <c r="Q2">
-        <v>0.5093034145092097</v>
+        <v>0.5135937052538692</v>
       </c>
       <c r="R2">
-        <v>0.512799589298165</v>
+        <v>0.5135937052538692</v>
       </c>
       <c r="S2">
-        <v>0.6647825978519259</v>
+        <v>0.7418289579988008</v>
       </c>
       <c r="T2">
-        <v>0.8212799962141379</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="U2">
-        <v>0.8224399624142474</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="V2">
-        <v>0.8254849949395936</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="W2">
-        <v>0.8497857211253275</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="X2">
-        <v>0.8563710047654874</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="Y2">
-        <v>0.8854792972080984</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="Z2">
-        <v>0.9269644411832905</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9305804114113848</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9310004190801557</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.950906339935768</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9524522932773718</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9654017709614557</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9659582365239947</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9752200649472452</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9893716247653852</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9967097610254447</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9967606322446125</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9974332611567127</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.999150061100286</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -2160,100 +2160,100 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3073399039778106</v>
+        <v>0.540800754885816</v>
       </c>
       <c r="I3">
-        <v>0.3100686029141494</v>
+        <v>0.540800754885816</v>
       </c>
       <c r="J3">
-        <v>0.3937240244393641</v>
+        <v>0.6454264940902052</v>
       </c>
       <c r="K3">
-        <v>0.4675564266918231</v>
+        <v>0.7308977727868518</v>
       </c>
       <c r="L3">
-        <v>0.5007792773650743</v>
+        <v>0.7371821914802322</v>
       </c>
       <c r="M3">
-        <v>0.513323393430096</v>
+        <v>0.7371821914802322</v>
       </c>
       <c r="N3">
-        <v>0.5216895122204617</v>
+        <v>0.7371821914802322</v>
       </c>
       <c r="O3">
-        <v>0.525879175847593</v>
+        <v>0.7371821914802322</v>
       </c>
       <c r="P3">
-        <v>0.5262598369607464</v>
+        <v>0.7371821914802322</v>
       </c>
       <c r="Q3">
-        <v>0.5280361735743525</v>
+        <v>0.7371821914802322</v>
       </c>
       <c r="R3">
-        <v>0.5681983613190674</v>
+        <v>0.7569980157623122</v>
       </c>
       <c r="S3">
-        <v>0.6719789387197825</v>
+        <v>0.9008669339451443</v>
       </c>
       <c r="T3">
-        <v>0.6817496201052506</v>
+        <v>0.9008669339451443</v>
       </c>
       <c r="U3">
-        <v>0.6925200079785946</v>
+        <v>0.9008669339451443</v>
       </c>
       <c r="V3">
-        <v>0.7584728397587356</v>
+        <v>0.9709733927998305</v>
       </c>
       <c r="W3">
-        <v>0.7703938230854857</v>
+        <v>0.9709733927998305</v>
       </c>
       <c r="X3">
-        <v>0.7940156600559791</v>
+        <v>0.9709733927998305</v>
       </c>
       <c r="Y3">
-        <v>0.8315026046010239</v>
+        <v>0.9855726091537541</v>
       </c>
       <c r="Z3">
-        <v>0.8590333952498139</v>
+        <v>0.9855726091537541</v>
       </c>
       <c r="AA3">
-        <v>0.8737205205587044</v>
+        <v>0.9855726091537541</v>
       </c>
       <c r="AB3">
-        <v>0.887919125200563</v>
+        <v>0.9855726091537541</v>
       </c>
       <c r="AC3">
-        <v>0.918347205167204</v>
+        <v>0.9864073464771271</v>
       </c>
       <c r="AD3">
-        <v>0.9243614094079751</v>
+        <v>0.9864073464771271</v>
       </c>
       <c r="AE3">
-        <v>0.9406160354901856</v>
+        <v>0.9864073464771271</v>
       </c>
       <c r="AF3">
-        <v>0.945206550771358</v>
+        <v>0.9864073464771271</v>
       </c>
       <c r="AG3">
-        <v>0.9821772977401435</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9830403639793497</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9832069319668834</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9848539203463161</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9848574460364349</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9956422626605719</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2276,103 +2276,103 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02439971406390821</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1908406409830336</v>
+        <v>0.2315051720378952</v>
       </c>
       <c r="I4">
-        <v>0.2005294667429121</v>
+        <v>0.2315051720378952</v>
       </c>
       <c r="J4">
-        <v>0.3705709102398395</v>
+        <v>0.4691194949632175</v>
       </c>
       <c r="K4">
-        <v>0.4665496202301451</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="L4">
-        <v>0.475172520306235</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="M4">
-        <v>0.4868227126783454</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="N4">
-        <v>0.4879165716379075</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="O4">
-        <v>0.4936485086098683</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="P4">
-        <v>0.4991060305697633</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="Q4">
-        <v>0.5621556674088202</v>
+        <v>0.6371451379064741</v>
       </c>
       <c r="R4">
-        <v>0.5909720183697641</v>
+        <v>0.6371451379064741</v>
       </c>
       <c r="S4">
-        <v>0.5911500288313633</v>
+        <v>0.6371451379064741</v>
       </c>
       <c r="T4">
-        <v>0.6487199868344279</v>
+        <v>0.68392426800107</v>
       </c>
       <c r="U4">
-        <v>0.8175831586905866</v>
+        <v>0.9195393669027589</v>
       </c>
       <c r="V4">
-        <v>0.820595799439953</v>
+        <v>0.9195393669027589</v>
       </c>
       <c r="W4">
-        <v>0.8691430490408233</v>
+        <v>0.9510092807081993</v>
       </c>
       <c r="X4">
-        <v>0.8711447995087629</v>
+        <v>0.9510092807081993</v>
       </c>
       <c r="Y4">
-        <v>0.8729396453526181</v>
+        <v>0.9510092807081993</v>
       </c>
       <c r="Z4">
-        <v>0.9318130354879961</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA4">
-        <v>0.9616516689558032</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.9618944030247285</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.9625998429007055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.9648921577779014</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.9652150848237132</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.9750307847029258</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.9841888894574687</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.9927674560243804</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.9988857173747873</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.9996112968226114</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>0.999782986250351</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -2398,100 +2398,100 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2289412844483868</v>
+        <v>0.3654554449303588</v>
       </c>
       <c r="I5">
-        <v>0.2345172762499981</v>
+        <v>0.3654554449303588</v>
       </c>
       <c r="J5">
-        <v>0.3471521304531117</v>
+        <v>0.5172557989558657</v>
       </c>
       <c r="K5">
-        <v>0.3855100738980794</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="L5">
-        <v>0.3954548479989328</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="M5">
-        <v>0.3958287976649204</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="N5">
-        <v>0.3989817268376376</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="O5">
-        <v>0.4006618193850837</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="P5">
-        <v>0.4056128435520994</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="Q5">
-        <v>0.4082058589791866</v>
+        <v>0.5326093538947145</v>
       </c>
       <c r="R5">
-        <v>0.4629420770712832</v>
+        <v>0.5780498245029501</v>
       </c>
       <c r="S5">
-        <v>0.5577973047777928</v>
+        <v>0.6971889773603417</v>
       </c>
       <c r="T5">
-        <v>0.5669731367365968</v>
+        <v>0.6971889773603417</v>
       </c>
       <c r="U5">
-        <v>0.5679364909388072</v>
+        <v>0.6971889773603417</v>
       </c>
       <c r="V5">
-        <v>0.5999850023619936</v>
+        <v>0.7009520959894453</v>
       </c>
       <c r="W5">
-        <v>0.6375616743949858</v>
+        <v>0.71487045414515</v>
       </c>
       <c r="X5">
-        <v>0.6502452600534904</v>
+        <v>0.71487045414515</v>
       </c>
       <c r="Y5">
-        <v>0.7198066607419028</v>
+        <v>0.7875448079412467</v>
       </c>
       <c r="Z5">
-        <v>0.7265028043480658</v>
+        <v>0.7875448079412467</v>
       </c>
       <c r="AA5">
-        <v>0.7442992885595822</v>
+        <v>0.7875448079412467</v>
       </c>
       <c r="AB5">
-        <v>0.7504316969227258</v>
+        <v>0.7875448079412467</v>
       </c>
       <c r="AC5">
-        <v>0.8187657535143591</v>
+        <v>0.85796452874744</v>
       </c>
       <c r="AD5">
-        <v>0.8196122854482086</v>
+        <v>0.85796452874744</v>
       </c>
       <c r="AE5">
-        <v>0.8863803380281459</v>
+        <v>0.9255074977801442</v>
       </c>
       <c r="AF5">
-        <v>0.9109918264941789</v>
+        <v>0.9255074977801442</v>
       </c>
       <c r="AG5">
-        <v>0.9815429642018588</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9824606296009482</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9867982904575211</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9907988435688214</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9928973289904364</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9982119533529036</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -2505,97 +2505,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05367263451208866</v>
+        <v>0.04474631166252167</v>
       </c>
       <c r="E6">
-        <v>0.05367263451208866</v>
+        <v>0.04474631166252167</v>
       </c>
       <c r="F6">
-        <v>0.05580944797870802</v>
+        <v>0.04474631166252167</v>
       </c>
       <c r="G6">
-        <v>0.05580944797870802</v>
+        <v>0.04474631166252167</v>
       </c>
       <c r="H6">
-        <v>0.09070653193435013</v>
+        <v>0.05488430012597745</v>
       </c>
       <c r="I6">
-        <v>0.2013137649907834</v>
+        <v>0.2045761888413759</v>
       </c>
       <c r="J6">
-        <v>0.2188126801772683</v>
+        <v>0.2045761888413759</v>
       </c>
       <c r="K6">
-        <v>0.2573575364112174</v>
+        <v>0.2214379898281824</v>
       </c>
       <c r="L6">
-        <v>0.2647462352394872</v>
+        <v>0.2214379898281824</v>
       </c>
       <c r="M6">
-        <v>0.3265401550518462</v>
+        <v>0.281153985901214</v>
       </c>
       <c r="N6">
-        <v>0.3265401550518462</v>
+        <v>0.281153985901214</v>
       </c>
       <c r="O6">
-        <v>0.5371175860119912</v>
+        <v>0.6151174840655464</v>
       </c>
       <c r="P6">
-        <v>0.6254006725100558</v>
+        <v>0.7236600452598902</v>
       </c>
       <c r="Q6">
-        <v>0.6254006725100558</v>
+        <v>0.7236600452598902</v>
       </c>
       <c r="R6">
-        <v>0.6255067830107136</v>
+        <v>0.7236600452598902</v>
       </c>
       <c r="S6">
-        <v>0.672053191372078</v>
+        <v>0.7552708306393106</v>
       </c>
       <c r="T6">
-        <v>0.6755229694749703</v>
+        <v>0.7552708306393106</v>
       </c>
       <c r="U6">
-        <v>0.7462624763097676</v>
+        <v>0.8314759179881033</v>
       </c>
       <c r="V6">
-        <v>0.8420235880718633</v>
+        <v>0.9538024646080839</v>
       </c>
       <c r="W6">
-        <v>0.8420235880718633</v>
+        <v>0.9538024646080839</v>
       </c>
       <c r="X6">
-        <v>0.8665790617886722</v>
+        <v>0.9538024646080839</v>
       </c>
       <c r="Y6">
-        <v>0.8929859596352565</v>
+        <v>0.9538024646080839</v>
       </c>
       <c r="Z6">
-        <v>0.9474459054638523</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9644720895023972</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9699675279920491</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9821532498848415</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9972083250400522</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9972083250400522</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9972083250400522</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9972083250400522</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9972083250400522</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2636,100 +2636,100 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.09495409484635667</v>
+        <v>0.1273514295208137</v>
       </c>
       <c r="I7">
-        <v>0.1060410695857476</v>
+        <v>0.1273514295208137</v>
       </c>
       <c r="J7">
-        <v>0.2368619962402193</v>
+        <v>0.3250247119432885</v>
       </c>
       <c r="K7">
-        <v>0.3529364650219179</v>
+        <v>0.4937855371156342</v>
       </c>
       <c r="L7">
-        <v>0.3532052370865025</v>
+        <v>0.4937855371156342</v>
       </c>
       <c r="M7">
-        <v>0.3532267205510533</v>
+        <v>0.4937855371156342</v>
       </c>
       <c r="N7">
-        <v>0.405555850056776</v>
+        <v>0.5375648641809343</v>
       </c>
       <c r="O7">
-        <v>0.4349540457391191</v>
+        <v>0.5375648641809343</v>
       </c>
       <c r="P7">
-        <v>0.4360142607895582</v>
+        <v>0.5375648641809343</v>
       </c>
       <c r="Q7">
-        <v>0.4563549259128608</v>
+        <v>0.5375648641809343</v>
       </c>
       <c r="R7">
-        <v>0.5239611490101407</v>
+        <v>0.6112970327477614</v>
       </c>
       <c r="S7">
-        <v>0.5574772252875601</v>
+        <v>0.618190783500393</v>
       </c>
       <c r="T7">
-        <v>0.5755676872517809</v>
+        <v>0.618190783500393</v>
       </c>
       <c r="U7">
-        <v>0.6783523210715285</v>
+        <v>0.7608950608214671</v>
       </c>
       <c r="V7">
-        <v>0.8198621506543009</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="W7">
-        <v>0.8350761529665574</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="X7">
-        <v>0.8503257709905593</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="Y7">
-        <v>0.8660900543765422</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="Z7">
-        <v>0.8685908332197937</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AA7">
-        <v>0.8730623510731531</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AB7">
-        <v>0.8799847028288809</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AC7">
-        <v>0.9087032980427505</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AD7">
-        <v>0.9122044012557132</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AE7">
-        <v>0.9274861518134381</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AF7">
-        <v>0.9335341854789212</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="AG7">
-        <v>0.9739770104998139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.9744966271297527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.9748220758668452</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.9906737342040611</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK7">
-        <v>0.9987810109942112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL7">
-        <v>0.998791914240579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2755,100 +2755,100 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2063767059310922</v>
+        <v>0.2974311591636233</v>
       </c>
       <c r="I8">
-        <v>0.2090797416147366</v>
+        <v>0.2974311591636233</v>
       </c>
       <c r="J8">
-        <v>0.3061492139150248</v>
+        <v>0.4105331177553709</v>
       </c>
       <c r="K8">
-        <v>0.4228186161915639</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="L8">
-        <v>0.4237981497194818</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="M8">
-        <v>0.4243838018365934</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="N8">
-        <v>0.4484203438270898</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="O8">
-        <v>0.4776941191339569</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="P8">
-        <v>0.4778356544734364</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="Q8">
-        <v>0.5519698981714973</v>
+        <v>0.6311125862269792</v>
       </c>
       <c r="R8">
-        <v>0.6217083253277806</v>
+        <v>0.6981251000963007</v>
       </c>
       <c r="S8">
-        <v>0.627591617004462</v>
+        <v>0.6981251000963007</v>
       </c>
       <c r="T8">
-        <v>0.6339257172614358</v>
+        <v>0.6981251000963007</v>
       </c>
       <c r="U8">
-        <v>0.7573520196279925</v>
+        <v>0.8556736451978997</v>
       </c>
       <c r="V8">
-        <v>0.8638986261118636</v>
+        <v>0.9847572777351487</v>
       </c>
       <c r="W8">
-        <v>0.8647628480902358</v>
+        <v>0.9847572777351487</v>
       </c>
       <c r="X8">
-        <v>0.9038017838562697</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9109455798716189</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9147143103188443</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9317170822103499</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9496211500828765</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9587209940661624</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9587636367688839</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9604968353356393</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9734209630617136</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9816560707447882</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9816648863114171</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9915564384860766</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9980298960996723</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9987160353268145</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9990341248975302</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2874,100 +2874,100 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1152620725371692</v>
+        <v>0.1681094051392021</v>
       </c>
       <c r="I9">
-        <v>0.1757848263525465</v>
+        <v>0.2282904661247477</v>
       </c>
       <c r="J9">
-        <v>0.2629820359720705</v>
+        <v>0.3410649812008232</v>
       </c>
       <c r="K9">
-        <v>0.3994602992735516</v>
+        <v>0.5510058959734966</v>
       </c>
       <c r="L9">
-        <v>0.4314518763182947</v>
+        <v>0.5549326458438414</v>
       </c>
       <c r="M9">
-        <v>0.4317329776854512</v>
+        <v>0.5549326458438414</v>
       </c>
       <c r="N9">
-        <v>0.4580841069730968</v>
+        <v>0.5549326458438414</v>
       </c>
       <c r="O9">
-        <v>0.5104738455561582</v>
+        <v>0.5990780146158688</v>
       </c>
       <c r="P9">
-        <v>0.5192752695824422</v>
+        <v>0.5990780146158688</v>
       </c>
       <c r="Q9">
-        <v>0.5459402570439612</v>
+        <v>0.5990780146158688</v>
       </c>
       <c r="R9">
-        <v>0.6258232932689769</v>
+        <v>0.697431330419551</v>
       </c>
       <c r="S9">
-        <v>0.64051335347813</v>
+        <v>0.697431330419551</v>
       </c>
       <c r="T9">
-        <v>0.6437520605144454</v>
+        <v>0.697431330419551</v>
       </c>
       <c r="U9">
-        <v>0.709389304143929</v>
+        <v>0.7676965216010295</v>
       </c>
       <c r="V9">
-        <v>0.8497141341948728</v>
+        <v>0.9852216297769129</v>
       </c>
       <c r="W9">
-        <v>0.8547802155912284</v>
+        <v>0.9852216297769129</v>
       </c>
       <c r="X9">
-        <v>0.8922755396803157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.911747936241781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.9179249382382093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.9356291642638332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.9513775211809884</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.9683715184169955</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.9713887054514192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9732881557302178</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.975469199976603</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.985381926045371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.985450066127323</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.986756739455524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9923408307640473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9930334860752622</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.994104138849108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -2993,97 +2993,97 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03595692531476677</v>
+        <v>0.0121541461665771</v>
       </c>
       <c r="I10">
-        <v>0.2088938063539412</v>
+        <v>0.3037938181359727</v>
       </c>
       <c r="J10">
-        <v>0.2409101912390695</v>
+        <v>0.3079079265605276</v>
       </c>
       <c r="K10">
-        <v>0.3904850684138655</v>
+        <v>0.5518811943519296</v>
       </c>
       <c r="L10">
-        <v>0.4341508593648767</v>
+        <v>0.5797640385918496</v>
       </c>
       <c r="M10">
-        <v>0.4371167878103466</v>
+        <v>0.5797640385918496</v>
       </c>
       <c r="N10">
-        <v>0.4561842925020395</v>
+        <v>0.5797640385918496</v>
       </c>
       <c r="O10">
-        <v>0.5342379334774903</v>
+        <v>0.6778097493218513</v>
       </c>
       <c r="P10">
-        <v>0.5531031090033693</v>
+        <v>0.6778097493218513</v>
       </c>
       <c r="Q10">
-        <v>0.5698442430173312</v>
+        <v>0.6778097493218513</v>
       </c>
       <c r="R10">
-        <v>0.6334055600258737</v>
+        <v>0.7462862083859727</v>
       </c>
       <c r="S10">
-        <v>0.6438136700824715</v>
+        <v>0.7462862083859727</v>
       </c>
       <c r="T10">
-        <v>0.6447633637163183</v>
+        <v>0.7462862083859727</v>
       </c>
       <c r="U10">
-        <v>0.6846511712990649</v>
+        <v>0.7664606863720876</v>
       </c>
       <c r="V10">
-        <v>0.8221499217435051</v>
+        <v>0.9857945635968479</v>
       </c>
       <c r="W10">
-        <v>0.8378854413047796</v>
+        <v>0.9857945635968479</v>
       </c>
       <c r="X10">
-        <v>0.8719573536120722</v>
+        <v>0.9941026444850932</v>
       </c>
       <c r="Y10">
-        <v>0.8986689130881252</v>
+        <v>0.9941026444850932</v>
       </c>
       <c r="Z10">
-        <v>0.9000789249491703</v>
+        <v>0.9941026444850932</v>
       </c>
       <c r="AA10">
-        <v>0.9175309172557691</v>
+        <v>0.9941026444850932</v>
       </c>
       <c r="AB10">
-        <v>0.9504212976967689</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9669470888475878</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9676970589875148</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9713314283615074</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9714343767509471</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9858124344647742</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9860621031905991</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.986831727972271</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9935502535458222</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9936508341147118</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9944981547957837</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -3112,97 +3112,97 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1897377161752974</v>
+        <v>0.3180112170408878</v>
       </c>
       <c r="I11">
-        <v>0.2488808017346023</v>
+        <v>0.3760302517995335</v>
       </c>
       <c r="J11">
-        <v>0.3122778800118451</v>
+        <v>0.4425182783148282</v>
       </c>
       <c r="K11">
-        <v>0.4146581408466343</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="L11">
-        <v>0.4234872588318629</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="M11">
-        <v>0.4234981333537803</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="N11">
-        <v>0.4462814125677874</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="O11">
-        <v>0.4753770554634513</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="P11">
-        <v>0.477367051265341</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="Q11">
-        <v>0.5160542903873583</v>
+        <v>0.6039101833764644</v>
       </c>
       <c r="R11">
-        <v>0.5868779904376382</v>
+        <v>0.6851833782608503</v>
       </c>
       <c r="S11">
-        <v>0.5966187883669209</v>
+        <v>0.6851833782608503</v>
       </c>
       <c r="T11">
-        <v>0.5980509268122709</v>
+        <v>0.6851833782608503</v>
       </c>
       <c r="U11">
-        <v>0.6641956507346918</v>
+        <v>0.7571415101247232</v>
       </c>
       <c r="V11">
-        <v>0.7942203704874455</v>
+        <v>0.9562740858517954</v>
       </c>
       <c r="W11">
-        <v>0.7947723632296952</v>
+        <v>0.9562740858517954</v>
       </c>
       <c r="X11">
-        <v>0.846249653228497</v>
+        <v>0.9990317970222976</v>
       </c>
       <c r="Y11">
-        <v>0.8655302580503773</v>
+        <v>0.9990317970222976</v>
       </c>
       <c r="Z11">
-        <v>0.8707039534492154</v>
+        <v>0.9990317970222976</v>
       </c>
       <c r="AA11">
-        <v>0.9011902838808632</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9288812693923987</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9495724379830756</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.951536252680943</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.954889893188416</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9622829807769007</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9794110603963088</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9802339244828122</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9849139709638179</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9951428509512878</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9952377943984592</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9959237518037893</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -3267,34 +3267,34 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5085994425425361</v>
       </c>
       <c r="F2">
-        <v>0.5093034145092097</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2">
         <v>35</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>63</v>
@@ -3308,34 +3308,34 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.540800754885816</v>
       </c>
       <c r="F3">
-        <v>0.5007792773650743</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
         <v>35</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>63</v>
@@ -3349,34 +3349,34 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5810684017322101</v>
       </c>
       <c r="F4">
-        <v>0.5621556674088202</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
         <v>35</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>63</v>
@@ -3390,34 +3390,34 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5172557989558657</v>
       </c>
       <c r="F5">
-        <v>0.5577973047777928</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
         <v>35</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
       </c>
       <c r="L5" t="s">
         <v>63</v>
@@ -3431,34 +3431,34 @@
         <v>43</v>
       </c>
       <c r="B6">
+        <v>0.04474631166252167</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.6151174840655464</v>
+      </c>
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5371175860119912</v>
-      </c>
       <c r="G6">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
         <v>35</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
@@ -3472,34 +3472,34 @@
         <v>44</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5375648641809343</v>
       </c>
       <c r="F7">
-        <v>0.5239611490101407</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
         <v>35</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
       </c>
       <c r="L7" t="s">
         <v>63</v>
@@ -3513,34 +3513,34 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5566872294735054</v>
       </c>
       <c r="F8">
-        <v>0.5519698981714973</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8">
         <v>35</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>63</v>
@@ -3554,34 +3554,34 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5510058959734966</v>
       </c>
       <c r="F9">
-        <v>0.5104738455561582</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
         <v>35</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
       </c>
       <c r="L9" t="s">
         <v>63</v>
@@ -3595,34 +3595,34 @@
         <v>47</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5518811943519296</v>
       </c>
       <c r="F10">
-        <v>0.5342379334774903</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
         <v>35</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
@@ -3636,34 +3636,34 @@
         <v>48</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5866153355968315</v>
       </c>
       <c r="F11">
-        <v>0.5160542903873583</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11">
         <v>35</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
       </c>
       <c r="L11" t="s">
         <v>63</v>
@@ -3731,34 +3731,34 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7418289579988008</v>
       </c>
       <c r="F2">
-        <v>0.8212799962141379</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2">
         <v>35</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>63</v>
@@ -3772,34 +3772,34 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7308977727868518</v>
       </c>
       <c r="F3">
-        <v>0.7584728397587356</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
         <v>35</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>63</v>
@@ -3813,34 +3813,34 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.9195393669027589</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8175831586905866</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
         <v>35</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>63</v>
@@ -3854,34 +3854,34 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7009520959894453</v>
       </c>
       <c r="F5">
-        <v>0.7198066607419028</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
         <v>35</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
       </c>
       <c r="L5" t="s">
         <v>63</v>
@@ -3895,34 +3895,34 @@
         <v>43</v>
       </c>
       <c r="B6">
+        <v>0.04474631166252167</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7236600452598902</v>
       </c>
       <c r="F6">
-        <v>0.7462624763097676</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
         <v>35</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
@@ -3936,34 +3936,34 @@
         <v>44</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7608950608214671</v>
       </c>
       <c r="F7">
-        <v>0.8198621506543009</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
         <v>35</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
       </c>
       <c r="L7" t="s">
         <v>63</v>
@@ -3977,34 +3977,34 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.8556736451978997</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7573520196279925</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8">
         <v>35</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>63</v>
@@ -4018,34 +4018,34 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.7676965216010295</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.709389304143929</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
         <v>35</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
       </c>
       <c r="L9" t="s">
         <v>63</v>
@@ -4059,34 +4059,34 @@
         <v>47</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7462862083859727</v>
       </c>
       <c r="F10">
-        <v>0.8221499217435051</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
         <v>35</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
@@ -4100,34 +4100,34 @@
         <v>48</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7571415101247232</v>
       </c>
       <c r="F11">
-        <v>0.7942203704874455</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11">
         <v>35</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
       </c>
       <c r="L11" t="s">
         <v>63</v>
@@ -4195,34 +4195,34 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.9785108207358681</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8212799962141379</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2">
         <v>35</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>63</v>
@@ -4236,34 +4236,34 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9008669339451443</v>
       </c>
       <c r="F3">
-        <v>0.8315026046010239</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
         <v>35</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>63</v>
@@ -4277,34 +4277,34 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.9195393669027589</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8175831586905866</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
         <v>35</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>63</v>
@@ -4318,34 +4318,34 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.85796452874744</v>
+      </c>
+      <c r="F5">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8187657535143591</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
         <v>35</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
       </c>
       <c r="L5" t="s">
         <v>63</v>
@@ -4359,34 +4359,34 @@
         <v>43</v>
       </c>
       <c r="B6">
+        <v>0.04474631166252167</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8314759179881033</v>
       </c>
       <c r="F6">
-        <v>0.8420235880718633</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
         <v>35</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
@@ -4400,34 +4400,34 @@
         <v>44</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.9795254063998245</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8198621506543009</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
         <v>35</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
       </c>
       <c r="L7" t="s">
         <v>63</v>
@@ -4441,34 +4441,34 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8556736451978997</v>
       </c>
       <c r="F8">
-        <v>0.8638986261118636</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8">
         <v>35</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>63</v>
@@ -4482,34 +4482,34 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.9852216297769129</v>
+      </c>
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8497141341948728</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
         <v>35</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
       </c>
       <c r="L9" t="s">
         <v>63</v>
@@ -4523,34 +4523,34 @@
         <v>47</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.9857945635968479</v>
+      </c>
+      <c r="F10">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8221499217435051</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
         <v>35</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
@@ -4564,34 +4564,34 @@
         <v>48</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9562740858517954</v>
       </c>
       <c r="F11">
-        <v>0.846249653228497</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11">
         <v>35</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
       </c>
       <c r="L11" t="s">
         <v>63</v>
@@ -4659,34 +4659,34 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9785108207358681</v>
       </c>
       <c r="F2">
-        <v>0.9269644411832905</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2">
         <v>35</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>63</v>
@@ -4700,34 +4700,34 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9008669339451443</v>
       </c>
       <c r="F3">
-        <v>0.918347205167204</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
         <v>35</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>63</v>
@@ -4741,34 +4741,34 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9195393669027589</v>
       </c>
       <c r="F4">
-        <v>0.9318130354879961</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
         <v>35</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>63</v>
@@ -4782,34 +4782,34 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9255074977801442</v>
       </c>
       <c r="F5">
-        <v>0.9109918264941789</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
         <v>35</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
       </c>
       <c r="L5" t="s">
         <v>63</v>
@@ -4823,34 +4823,34 @@
         <v>43</v>
       </c>
       <c r="B6">
+        <v>0.04474631166252167</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9538024646080839</v>
       </c>
       <c r="F6">
-        <v>0.9474459054638523</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
         <v>35</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
@@ -4864,34 +4864,34 @@
         <v>44</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9795254063998245</v>
       </c>
       <c r="F7">
-        <v>0.9087032980427505</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
         <v>35</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
       </c>
       <c r="L7" t="s">
         <v>63</v>
@@ -4905,34 +4905,34 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9847572777351487</v>
       </c>
       <c r="F8">
-        <v>0.9038017838562697</v>
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8">
         <v>35</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>63</v>
@@ -4946,34 +4946,34 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9852216297769129</v>
       </c>
       <c r="F9">
-        <v>0.911747936241781</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
         <v>35</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
       </c>
       <c r="L9" t="s">
         <v>63</v>
@@ -4987,34 +4987,34 @@
         <v>47</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9857945635968479</v>
       </c>
       <c r="F10">
-        <v>0.9000789249491703</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
         <v>35</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
       </c>
       <c r="L10" t="s">
         <v>63</v>
@@ -5028,34 +5028,34 @@
         <v>48</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9562740858517954</v>
       </c>
       <c r="F11">
-        <v>0.9011902838808632</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11">
         <v>35</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
       </c>
       <c r="L11" t="s">
         <v>63</v>
